--- a/WorshipCreator.TestData/Source/Books/WowWorship/WowWorship.xlsx
+++ b/WorshipCreator.TestData/Source/Books/WowWorship/WowWorship.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PageOptimizer\Data\WorshipCreator.TestData\Source\Books\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PageOptimizer\Data\WorshipCreator.TestData\Source\Books\WowWorship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36A8026-2AD6-4BFA-8C86-4A1FFED0933A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193CFACC-961E-414C-9C6C-3287A00C2465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{40751610-DF76-4D33-903F-AA5CACF61494}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{40751610-DF76-4D33-903F-AA5CACF61494}"/>
   </bookViews>
   <sheets>
     <sheet name="Albums" sheetId="1" r:id="rId1"/>
     <sheet name="Songs" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Albums!$A$1:$L$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Songs!$A$1:$K$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="446">
   <si>
     <t>#</t>
   </si>
@@ -127,1021 +128,1255 @@
     <t>WOW Worship: Lime</t>
   </si>
   <si>
-    <t>1. "The River Is Here" – Andy Park</t>
-  </si>
-  <si>
-    <t>2. "Ancient Of Days" – Jamie Harvill &amp; Gary Sadler (sung by Ron Kenoly)</t>
-  </si>
-  <si>
-    <t>3. "Let It Rise" – Holland Davis (sung by Paul Baloche)</t>
-  </si>
-  <si>
-    <t>4. "Let The River Flow" – Darrell Evans (sung by Lindell Cooley)</t>
-  </si>
-  <si>
-    <t>5. "Change My Heart Oh God" – Eddie Espinosa (sung by Roby Duke)</t>
-  </si>
-  <si>
-    <t>6. "The Heart Of Worship" – Matt Redman</t>
-  </si>
-  <si>
-    <t>8. "Open The Eyes Of My Heart" – Paul Baloche</t>
-  </si>
-  <si>
-    <t>9. "Refiner's Fire" – Brian Doerksen</t>
-  </si>
-  <si>
-    <t>10. "Blessed Be The Name Of The Lord" – Don Moen</t>
-  </si>
-  <si>
-    <t>11. "I Love You Lord" – Laurie Klein (sung by Kristina Hamilton)</t>
-  </si>
-  <si>
-    <t>12. "Father I Adore You" – Terrye Coelho Strom (sung by The Maranatha! Singers)</t>
-  </si>
-  <si>
-    <t>13. "In His Time" – Diane Ball (sung by Jack Searle)</t>
-  </si>
-  <si>
-    <t>14. "Give Thanks" – Henry Smith (sung by Don Moen)</t>
-  </si>
-  <si>
-    <t>15. "Come Into His Presence" – Lynn Baird (sung by Don Moen)</t>
-  </si>
-  <si>
-    <t>7. "Shout to the Lord" – Darlene Zschech</t>
-  </si>
-  <si>
-    <t>2. "My Life Is In You, Lord" – Daniel Gardner (sung by Joseph Garlington)</t>
-  </si>
-  <si>
-    <t>3. "Mighty Is Our God" – Eugene Greco (sung by Chris Rodriguez)</t>
-  </si>
-  <si>
-    <t>4. "We Will Embrace Your Move" – Darrell Evans</t>
-  </si>
-  <si>
-    <t>5. "I Will Celebrate" – Linda Duvall (sung by Gene Miller)</t>
-  </si>
-  <si>
-    <t>6. "Blessed Be The Lord God Almighty" – Bob Fitts (sung by Kelly Willard)</t>
-  </si>
-  <si>
-    <t>7. "Come Let Us Worship And Bow Down" – Dave Doherty (sung by Rob Mathes)</t>
-  </si>
-  <si>
-    <t>8. "Jesus Name Above All Names" – Naida Hearn (sung by Bill Batstone)</t>
-  </si>
-  <si>
-    <t>9. "Come, Now Is The Time To Worship" – Brian Doerksen featuring Wendy Whitehead</t>
-  </si>
-  <si>
-    <t>10. "Take My Life" – Scott Underwood</t>
-  </si>
-  <si>
-    <t>11. "More Love More Power" – Jude Del Hierro (sung by Keith Matten)</t>
-  </si>
-  <si>
-    <t>13. "More Precious Than Silver" – Lynn DeShazo (sung by Leanne Albrecht)</t>
-  </si>
-  <si>
-    <t>14. "Open Our Eyes" – Bob Cull (sung by Teri DeSario)</t>
-  </si>
-  <si>
-    <t>1. "Lord, I Lift Your Name on High" – Rick Founds (sung by The Maranatha! Singers)</t>
-  </si>
-  <si>
-    <t>12. "Isn't He" – John Wimber (sung by Terry Clark)</t>
-  </si>
-  <si>
-    <t>15. "I Could Sing Of Your Love Forever" – Martin Smith (Delirious?)</t>
-  </si>
-  <si>
-    <t>1. "Majestic" – Lincoln Brewster</t>
-  </si>
-  <si>
-    <t>2. "Unto The One" – Matt Papa</t>
-  </si>
-  <si>
-    <t>4. "Hear Us From Heaven" – Jared Anderson</t>
-  </si>
-  <si>
-    <t>5. "All Things" – Jeremy Scott</t>
-  </si>
-  <si>
-    <t>6. "My Savior Lives" – New Life Worship</t>
-  </si>
-  <si>
-    <t>7. "God Of All Splendor" – Robbie Reider</t>
-  </si>
-  <si>
-    <t>8. "Bless His Name" – Robbie Reider and Casey Corum</t>
-  </si>
-  <si>
-    <t>9. "If You Say Go" – Rita Springer</t>
-  </si>
-  <si>
-    <t>10. "Unfailing Love" – Nigel Briggs &amp; TRENT</t>
-  </si>
-  <si>
-    <t>11. "Almighty God" – Joel Engle</t>
-  </si>
-  <si>
-    <t>3. "Revelation Song" – Gateway Worship</t>
-  </si>
-  <si>
-    <t>1. "Did You Feel/Mountains Tremble" – Delirious?</t>
-  </si>
-  <si>
-    <t>2. "Light the Fire Again" – Brian Doerksen</t>
-  </si>
-  <si>
-    <t>3. "Rock of Ages" – Praise Band</t>
-  </si>
-  <si>
-    <t>4. "Hungry" (Falling On My Knees) – Kathryn Scott</t>
-  </si>
-  <si>
-    <t>5. "Better Is One Day" – Charlie Hall</t>
-  </si>
-  <si>
-    <t>6. "In That Day" – Praise Band</t>
-  </si>
-  <si>
-    <t>7. "We Want To See Jesus Lifted High" – Noel Richards</t>
-  </si>
-  <si>
-    <t>8. "Worship You" – Jami Smith</t>
-  </si>
-  <si>
-    <t>9. "In the Secret" – Sonicflood</t>
-  </si>
-  <si>
-    <t>10. "I Walk By Faith" – Chris Falson (sung by Praise Band)</t>
-  </si>
-  <si>
-    <t>11. "Redeemer Savior Friend" – Darrell Evans and Chris Springer (sung by Dave Brooks)</t>
-  </si>
-  <si>
-    <t>12. "Jesus, Lover of My Soul" – Darlene Zschech</t>
-  </si>
-  <si>
-    <t>13. "You Are God" – Scott Underwood</t>
-  </si>
-  <si>
-    <t>14. "We Will Dance" – David Ruis</t>
-  </si>
-  <si>
-    <t>15. "I Will Not Forget You" – Praise Band</t>
-  </si>
-  <si>
-    <t>1. Victory Chant – Joseph Vogels (sung by Bob Fitts)</t>
-  </si>
-  <si>
-    <t>2. I Will Celebrate – The Maranatha! Singers</t>
-  </si>
-  <si>
-    <t>3. Celebrate Jesus – The Alleluia Singers (featuring Don Moen)</t>
-  </si>
-  <si>
-    <t>4. I Believe in Jesus – Keith Matten</t>
-  </si>
-  <si>
-    <t>5. Holy and Anointed One – Randy Butler</t>
-  </si>
-  <si>
-    <t>6. He Is Able – Praise Band</t>
-  </si>
-  <si>
-    <t>8. I See the Lord – Chris Falson</t>
-  </si>
-  <si>
-    <t>9. Awesome God – Praise Band</t>
-  </si>
-  <si>
-    <t>10. God Is Good All the Time – Don Moen</t>
-  </si>
-  <si>
-    <t>11. Shine Jesus Shine – Graham Kendrick</t>
-  </si>
-  <si>
-    <t>12. Jesus Is Alive – Ron Kenoly</t>
-  </si>
-  <si>
-    <t>13. God Will Make A Way – Don Moen</t>
-  </si>
-  <si>
-    <t>14. As the Deer – Martin J. Nystrom (sung by The Maranatha! Singers)</t>
-  </si>
-  <si>
-    <t>15. Glorify Thy Name – Donna Adkins (sung by The Maranatha! Singers)</t>
-  </si>
-  <si>
-    <t>16. When I Look Into Your Holiness – Wayne and Cathy Perrin (sung by Kent Henry)</t>
-  </si>
-  <si>
-    <t>17. There Is None Like You – Lenny LeBlanc</t>
-  </si>
-  <si>
-    <t>18. Holy Ground – Geron Davis</t>
-  </si>
-  <si>
-    <t>7. Above All – Paul Baloche (sung by Lenny LeBlanc)</t>
-  </si>
-  <si>
-    <t>1. Michael W. Smith - Awesome God – 4:03</t>
-  </si>
-  <si>
-    <t>2. Rebecca St. James - Breathe – 3:58</t>
-  </si>
-  <si>
-    <t>4. Amy Grant - Imagine – 3:47</t>
-  </si>
-  <si>
-    <t>5. Caedmon's Call - Majesty – 4:07   **</t>
-  </si>
-  <si>
-    <t>6. Nichole Nordeman - You Are My All In All – 4:12   **</t>
-  </si>
-  <si>
-    <t>8. Joy Williams - Hungry (Falling On My Knees) – 4:31   **</t>
-  </si>
-  <si>
-    <t>9. Chris Tomlin - Forever – 5:14</t>
-  </si>
-  <si>
-    <t>10. NewSong - You Are My King – 4:44</t>
-  </si>
-  <si>
-    <t>11. Darlene Zschech - I Give You My Heart – 6:32</t>
-  </si>
-  <si>
-    <t>12. Out of Eden - Every Move I Make – 4:16</t>
-  </si>
-  <si>
-    <t>13. Matt Redman - Let Everything That Has Breath – 4:18</t>
-  </si>
-  <si>
-    <t>14. Nicole C. Mullen - Redeemer – 4:56</t>
-  </si>
-  <si>
-    <t>15. 4Him - Thy Word – 4:36   **</t>
-  </si>
-  <si>
-    <t>16. Rich Mullins - Step By Step (Reprise) – 2:27</t>
-  </si>
-  <si>
-    <t>17. Big Daddy Weave - Audience of One – 5:24</t>
-  </si>
-  <si>
-    <t>3. Mac Powell and Cliff &amp; Danielle Young (of Caedmon's Call) - God Of Wonders – 5:09</t>
-  </si>
-  <si>
-    <t>7. Jeff Deyo (of SONICFLOOd) &amp; Lisa Kimmey - I Could Sing of Your Love Forever – 4:54</t>
-  </si>
-  <si>
-    <t>2. Mark Schultz - Shout To The Lord – 4:38   **</t>
-  </si>
-  <si>
-    <t>3. Jeff Deyo - More Love, More Power – 4:27</t>
-  </si>
-  <si>
-    <t>4. Tim Hughes - Here I Am To Worship – 5:15</t>
-  </si>
-  <si>
-    <t>6. The Katinas - Draw Me Close – 5:17</t>
-  </si>
-  <si>
-    <t>7. Delirious? - The Happy Song – 4:31</t>
-  </si>
-  <si>
-    <t>8. FFH - Better Is One Day – 3:38   **</t>
-  </si>
-  <si>
-    <t>9. Phillips, Craig and Dean - Come, Now Is The Time To Worship – 3:58</t>
-  </si>
-  <si>
-    <t>10. Passion Band - The Heart of Worship – 6:06</t>
-  </si>
-  <si>
-    <t>12. Twila Paris - He Is Exalted – 3:45</t>
-  </si>
-  <si>
-    <t>13. Jars of Clay - Be Thou My Vision – 4:15   **</t>
-  </si>
-  <si>
-    <t>14. Keith Green - Oh Lord, You're Beautiful – 4:22</t>
-  </si>
-  <si>
-    <t>15. GlassByrd - I Stand Amazed – 3:59</t>
-  </si>
-  <si>
-    <t>16. David Crowder Band - Our Love Is Loud – 4:48</t>
-  </si>
-  <si>
-    <t>1. Third Day - Your Love Oh Lord (Psalm 36) – 3:55</t>
-  </si>
-  <si>
-    <t>5. Adrienne Liesching and Geoff Moore - In Christ Alone – 5:46</t>
-  </si>
-  <si>
-    <t>11. Chris Tomlin with Matt Redman - The Wonderful Cross – 7:07</t>
-  </si>
-  <si>
-    <t>1. Chris Tomlin - Famous One – 4:16</t>
-  </si>
-  <si>
-    <t>2. Third Day - You Are So Good To Me – 4:01</t>
-  </si>
-  <si>
-    <t>3. Bebo Norman - Amazing Love – 3:53   **</t>
-  </si>
-  <si>
-    <t>4. Mark Schultz - Give Us Clean Hands – 4:43   **</t>
-  </si>
-  <si>
-    <t>5. Darlene Zschech - The Potter's Hand – 4:55</t>
-  </si>
-  <si>
-    <t>6. Michael W. Smith - Above All – 4:33</t>
-  </si>
-  <si>
-    <t>7. Jaci Velasquez - Sanctuary – 3:40   **</t>
-  </si>
-  <si>
-    <t>9. Rebecca St. James - The Power of Your Love – 4:33   **</t>
-  </si>
-  <si>
-    <t>10. ZOEgirl - Jesus, Lover of My Soul – 4:42   **</t>
-  </si>
-  <si>
-    <t>11. Joy Williams - How Deep The Father's Love For Us – 3:53   **</t>
-  </si>
-  <si>
-    <t>12. Michael Frye and Kathryn Scott - Be the Centre – 5:35</t>
-  </si>
-  <si>
-    <t>14. Amy Grant - What A Friend We Have In Jesus/Old Rugged Cross/How Great Thou Art – 3:30</t>
-  </si>
-  <si>
-    <t>15. Twila Paris - We Will Glorify – 3:13</t>
-  </si>
-  <si>
-    <t>16. Casting Crowns - Beautiful Savior (Bonus Track) – 5:19   **</t>
-  </si>
-  <si>
-    <t>17. Planetshakers - All I Want Is You (Bonus Track) – 4:54</t>
-  </si>
-  <si>
-    <t>8. Matt Redman and Tim Hughes - Once Again – 3:33</t>
-  </si>
-  <si>
-    <t>13. Steven Curtis Chapman with Chris Tomlin - We Fall Down – 4:24   **</t>
-  </si>
-  <si>
-    <t>1. Jeremy Camp - Enough – 3:53</t>
-  </si>
-  <si>
-    <t>2. Delirious? - Did You Feel the Mountains Tremble – 6:29</t>
-  </si>
-  <si>
-    <t>3. SONICFLOOd - Lord I Lift Your Name on High – 4:27</t>
-  </si>
-  <si>
-    <t>4. Brenton Brown - Hallelujah (Your Love Is Amazing) – 4:09</t>
-  </si>
-  <si>
-    <t>5. Salvador - As The Deer – 3:57</t>
-  </si>
-  <si>
-    <t>6. Nicole C. Mullen - Victory Chant – 5:18</t>
-  </si>
-  <si>
-    <t>8. Paul Colman Trio - I Love You Lord – 3:31</t>
-  </si>
-  <si>
-    <t>9. Phillips, Craig and Dean - Let My Words Be Few – 4:18</t>
-  </si>
-  <si>
-    <t>10. Big Daddy Weave - Word of God Speak – 4:17   **</t>
-  </si>
-  <si>
-    <t>11. Randy Travis - Open the Eyes of My Heart – 3:55</t>
-  </si>
-  <si>
-    <t>12. FFH - Spirit of The Living God – 4:46   **</t>
-  </si>
-  <si>
-    <t>13. Keith Green - There Is A Redeemer – 3:10</t>
-  </si>
-  <si>
-    <t>14. Caedmon's Call - I Exalt Thee – 3:40   **</t>
-  </si>
-  <si>
-    <t>15. Jars of Clay - I'll Fly Away – 4:43   **</t>
-  </si>
-  <si>
-    <t>16. Tim Hughes - May The Words of My Mouth (Bonus Track) – 4:12</t>
-  </si>
-  <si>
-    <t>17. Jeremy Riddle - More Than A Friend (Bonus Track) – 5:31</t>
-  </si>
-  <si>
-    <t>7. Plus One - Here I Am To Worship – 4:39</t>
-  </si>
-  <si>
-    <t>2. By The Tree - Beautiful One – 3:59</t>
-  </si>
-  <si>
-    <t>3. Chris Tomlin - How Great Is Our God – 4:25</t>
-  </si>
-  <si>
-    <t>4. Natalie Grant - In Christ Alone – 5:33</t>
-  </si>
-  <si>
-    <t>5. Tree63 - Blessed Be Your Name – 3:49</t>
-  </si>
-  <si>
-    <t>6. Michael W. Smith - You Are Holy (Prince of Peace) – 5:18</t>
-  </si>
-  <si>
-    <t>7. Newsboys - He Reigns – 4:55</t>
-  </si>
-  <si>
-    <t>8. Sonicflood - Here I Am to Worship – 4:02</t>
-  </si>
-  <si>
-    <t>9. Building 429 - Famous One – 4:10</t>
-  </si>
-  <si>
-    <t>10. Bethany Dillon - Holy Is the Lord – 4:51</t>
-  </si>
-  <si>
-    <t>11. Casting Crowns - Who Am I – 5:35</t>
-  </si>
-  <si>
-    <t>12. Tim Hughes - Be Glorified – 3:41</t>
-  </si>
-  <si>
-    <t>13. Matt Redman - The Heart of Worship – 6:28</t>
-  </si>
-  <si>
-    <t>14. BarlowGirl - No One Like You – 3:12</t>
-  </si>
-  <si>
-    <t>15. Israel and New Breed - You Are Good – 5:27</t>
-  </si>
-  <si>
-    <t>16. Vicky Beeching - Yesterday, Today and Forever – 3:55</t>
-  </si>
-  <si>
-    <t>17. Josh Bates - King of Glory – 3:30</t>
-  </si>
-  <si>
-    <t>1. Rich Mullins and Bebo Norman - Step by Step – 5:22</t>
-  </si>
-  <si>
-    <t>1. David Crowder Band - O Praise Him (All This for a King) – 5:46</t>
-  </si>
-  <si>
-    <t>2. Third Day - Agnus Dei – 4:23</t>
-  </si>
-  <si>
-    <t>4. Big Daddy Weave - Let It Rise – 4:32</t>
-  </si>
-  <si>
-    <t>5. Rebecca St. James - Forever [alt. ending] – 5:27</t>
-  </si>
-  <si>
-    <t>6. Jeremy Camp - Wonderful Maker – 4:29</t>
-  </si>
-  <si>
-    <t>7. Phillips, Craig and Dean - Friend of God – 4:56</t>
-  </si>
-  <si>
-    <t>8. Kutless - All Who Are Thirsty – 4:15</t>
-  </si>
-  <si>
-    <t>9. Selah - Wonderful, Merciful Saviour – 4:12</t>
-  </si>
-  <si>
-    <t>10. Avalon - Indescribable – 4:03</t>
-  </si>
-  <si>
-    <t>11. Delirious? - My Glorious – 6:14</t>
-  </si>
-  <si>
-    <t>12. Twila Paris - Days of Elijah – 4:19</t>
-  </si>
-  <si>
-    <t>13. Amy Grant - El Shaddai – 4:05</t>
-  </si>
-  <si>
-    <t>14. Darlene Zschech - Worthy Is the Lamb – 6:01</t>
-  </si>
-  <si>
-    <t>15. Warren Barfield - Alive Forever, Amen – 3:27</t>
-  </si>
-  <si>
-    <t>16. Pocket Full of Rocks - Falling – 6:37</t>
-  </si>
-  <si>
-    <t>3. Passion Band featuring Christy Nockels - Grace Flows Down – 4:25</t>
-  </si>
-  <si>
-    <t>"Your Grace Is Enough"</t>
-  </si>
-  <si>
-    <t>"Everlasting God"</t>
-  </si>
-  <si>
-    <t>Brenton Brown, Kenny Riley</t>
-  </si>
-  <si>
-    <t>"Shout Unto God"</t>
-  </si>
-  <si>
-    <t>"You Never Let Go"</t>
-  </si>
-  <si>
-    <t>Beth Redman, Matt Redman</t>
-  </si>
-  <si>
-    <t>"Amazing Grace"</t>
-  </si>
-  <si>
-    <t>Louie Giglio, Tomlin, Traditional</t>
-  </si>
-  <si>
-    <t>"Mighty to Save"</t>
-  </si>
-  <si>
-    <t>Ben Fielding, Reuben Morgan</t>
-  </si>
-  <si>
-    <t>"Revelation Song"</t>
-  </si>
-  <si>
-    <t>Jennie Lee Riddle</t>
-  </si>
-  <si>
-    <t>"Lead Me to the Cross"</t>
-  </si>
-  <si>
-    <t>Brooke Fraser</t>
-  </si>
-  <si>
-    <t>Francesca Battistelli (My Paper Heart: Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>"Hosanna (Praise is Raising)"</t>
-  </si>
-  <si>
-    <t>Paul Baloche, Brown</t>
-  </si>
-  <si>
-    <t>"All Because of Jesus"</t>
-  </si>
-  <si>
-    <t>Steve Fee</t>
-  </si>
-  <si>
-    <t>"The Wonderful Cross"</t>
-  </si>
-  <si>
-    <t>Jesse Reeves, Tomlin, J.D. Walt</t>
-  </si>
-  <si>
-    <t>Matthew West (WOW Worship: Purple)</t>
-  </si>
-  <si>
-    <t>"Your Name"</t>
-  </si>
-  <si>
-    <t>Baloche, Glenn Packiam</t>
-  </si>
-  <si>
-    <t>"You Reign"</t>
-  </si>
-  <si>
-    <t>"New Song We Sing"</t>
-  </si>
-  <si>
-    <t>"Beautiful Jesus"</t>
-  </si>
-  <si>
-    <t>Kristian Stanfill (Attention)</t>
-  </si>
-  <si>
-    <t>Matt Maher, Chris Tomlin</t>
-  </si>
-  <si>
-    <t>Matt Maher (Empty &amp; Beautiful)</t>
-  </si>
-  <si>
-    <t>Lincoln Brewster (Let the Praises Ring)</t>
-  </si>
-  <si>
-    <t>Joel Houston, Marty Sampson</t>
-  </si>
-  <si>
-    <t>Michael W. Smith (A New Hallelujah)</t>
-  </si>
-  <si>
-    <t>Matt Redman (Beautiful News)</t>
-  </si>
-  <si>
-    <t>Chris Tomlin (Music Inspired By the Motion Picture Amazing Grace)</t>
-  </si>
-  <si>
-    <t>Hillsong United (The I Heart Revolution)</t>
-  </si>
-  <si>
-    <t>Kari Jobe (Kari Jobe)</t>
-  </si>
-  <si>
-    <t>Brenton Brown (Everlasting God)</t>
-  </si>
-  <si>
-    <t>Casting Crowns (The Altar and the Door)</t>
-  </si>
-  <si>
-    <t>Paul Baloche (A Greater Song)</t>
-  </si>
-  <si>
-    <t>Steven Curtis Chapman, Barry Graul, Bart Millard</t>
-  </si>
-  <si>
-    <t>MercyMe (All That Is Within Me)</t>
-  </si>
-  <si>
-    <t>Meredith Andrews, Jason Ingram, Keith Everette Smith</t>
-  </si>
-  <si>
-    <t>Meredith Andrews (The Invitation)</t>
-  </si>
-  <si>
-    <t>Ed Cash, Kristian Stanfill</t>
-  </si>
-  <si>
-    <t>"I Am Free"</t>
-  </si>
-  <si>
-    <t>Jonathan Egan</t>
-  </si>
-  <si>
-    <t>"Everything Glorious""</t>
-  </si>
-  <si>
-    <t>David Crowder</t>
-  </si>
-  <si>
-    <t>"God of this City"</t>
-  </si>
-  <si>
-    <t>Richard Bleakley, Aaron Boyd, Peter Comfort, Ian Jordan, Peter Kernaghan, Andrew McCann</t>
-  </si>
-  <si>
-    <t>"How Great is Our God""</t>
-  </si>
-  <si>
     <t>Hillsong London</t>
   </si>
   <si>
-    <t>"Majesty (Here I Am)" by Leeland"</t>
-  </si>
-  <si>
-    <t>"Give Us Clean Hands" by Kutless"</t>
-  </si>
-  <si>
-    <t>"Hosanna" by Selah"</t>
-  </si>
-  <si>
-    <t>"Marvelous Light" by Charlie Hall"</t>
-  </si>
-  <si>
-    <t>"Song of Hope" by Robbie Seay Band"</t>
-  </si>
-  <si>
-    <t>"Desert Song" by Natalie Grant"</t>
-  </si>
-  <si>
-    <t>"My Savior My God" by Aaron Shust"</t>
-  </si>
-  <si>
-    <t>"You Are Good" by Israel Houghton"</t>
-  </si>
-  <si>
-    <t>"Happy Day" by Tim Hughes"</t>
-  </si>
-  <si>
-    <t>"Forever Reign" (Album Version) by One Sonic Society"</t>
-  </si>
-  <si>
-    <t>Newsboys (Go)</t>
-  </si>
-  <si>
-    <t>David Crowder*Band (Remedy)</t>
-  </si>
-  <si>
-    <t>Chris Tomlin (Hello Love)</t>
-  </si>
-  <si>
-    <t>Chris Tomlin, Ed Cash, Jesse Reeves</t>
-  </si>
-  <si>
-    <t>"You're Worthy of My Praise" by Big Daddy Weave featuring BarlowGirl (WOW Worship Version)"</t>
-  </si>
-  <si>
-    <t>1. Our God</t>
-  </si>
-  <si>
     <t>Chris Tomlin</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Album Only</t>
-  </si>
-  <si>
-    <t>2. Gods Not Dead (Like a Lion) (Live)</t>
-  </si>
-  <si>
     <t>Newsboys</t>
   </si>
   <si>
-    <t>3. 10-000 Reasons (Bless the Lord) (Radio Version)</t>
-  </si>
-  <si>
     <t>Matt Redman</t>
   </si>
   <si>
-    <t>4. Lord- I Need You</t>
-  </si>
-  <si>
     <t>Matt Maher</t>
   </si>
   <si>
-    <t>ADD TO CART</t>
-  </si>
-  <si>
-    <t>5. Oceans (Where Feet May Fail)</t>
-  </si>
-  <si>
     <t>Hillsong United</t>
   </si>
   <si>
-    <t>6. How He Loves (Radio Version)</t>
-  </si>
-  <si>
     <t>David Crowder Band</t>
   </si>
   <si>
-    <t>7. Redeemed</t>
-  </si>
-  <si>
     <t>Big Daddy Weave</t>
   </si>
   <si>
-    <t>8. Love Came Down</t>
-  </si>
-  <si>
     <t>Kari Jobe</t>
   </si>
   <si>
-    <t>9. White Flag</t>
-  </si>
-  <si>
     <t>Building 429</t>
   </si>
   <si>
-    <t>10. Glorious Day (Living He Loved Me)</t>
-  </si>
-  <si>
     <t>Casting Crowns</t>
   </si>
   <si>
-    <t>11. One Thing Remains (Radio Version)</t>
-  </si>
-  <si>
     <t>Kristian Stanfill</t>
   </si>
   <si>
-    <t>12. Open Up the Heavens (feat. Andi Rozier &amp; Meredith Andrews) (Edit)</t>
-  </si>
-  <si>
-    <t>Vertical Church Band feat. Andi Rozier &amp; Meredith Andrews</t>
-  </si>
-  <si>
-    <t>13. Your Great Name</t>
-  </si>
-  <si>
     <t>Natalie Grant</t>
   </si>
   <si>
-    <t>14. Forever Reign</t>
-  </si>
-  <si>
     <t>Chris August</t>
   </si>
   <si>
-    <t>15. Beautiful Things</t>
-  </si>
-  <si>
     <t>Gungor</t>
   </si>
   <si>
     <t>Rise Up and Praise Him</t>
   </si>
   <si>
-    <t xml:space="preserve"> Paul Baloche and Gary Sadler</t>
-  </si>
-  <si>
     <t>All Things Are Possible</t>
   </si>
   <si>
-    <t xml:space="preserve"> Darlene Zschech</t>
-  </si>
-  <si>
     <t>Trading My Sorrows</t>
   </si>
   <si>
-    <t xml:space="preserve"> Darrell Evans</t>
-  </si>
-  <si>
     <t>Every Move I Make</t>
   </si>
   <si>
-    <t xml:space="preserve"> David Ruis</t>
-  </si>
-  <si>
     <t>That's Why We Praise Him</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tommy Walker</t>
-  </si>
-  <si>
     <t>We Fall Down</t>
   </si>
   <si>
-    <t xml:space="preserve"> Chris Tomlin</t>
-  </si>
-  <si>
     <t>Unashamed Love</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lamont Hierbert</t>
-  </si>
-  <si>
     <t>He Knows My Name</t>
   </si>
   <si>
     <t>Hallelujah (Your Love Is Amazing)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Brenton Brown and Brian Doerksen</t>
-  </si>
-  <si>
     <t>Lord Reign in Me</t>
   </si>
   <si>
-    <t xml:space="preserve"> Brenton Brown</t>
-  </si>
-  <si>
     <t>My Redeemer Lives</t>
   </si>
   <si>
-    <t xml:space="preserve"> Reuben Morgan</t>
-  </si>
-  <si>
     <t>Fuel</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tom Wuest</t>
-  </si>
-  <si>
     <t>You're Worthy of My Praise</t>
   </si>
   <si>
     <t>Breathe</t>
   </si>
   <si>
-    <t xml:space="preserve"> Marie Barnett</t>
-  </si>
-  <si>
     <t>Agnus Dei</t>
   </si>
   <si>
-    <t xml:space="preserve"> Michael W. Smith</t>
-  </si>
-  <si>
     <t>Shout to the North</t>
   </si>
   <si>
-    <t xml:space="preserve"> Martin Smith</t>
-  </si>
-  <si>
     <t>The Doxology</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ken Thomas, new bridge by Tommy Walker</t>
-  </si>
-  <si>
     <t>He Is Exalted</t>
   </si>
   <si>
-    <t xml:space="preserve"> Twila Paris</t>
-  </si>
-  <si>
     <t>Hosanna</t>
   </si>
   <si>
-    <t xml:space="preserve"> Carl Tuttle</t>
-  </si>
-  <si>
     <t>Cry of My Heart</t>
   </si>
   <si>
-    <t xml:space="preserve"> Terry Butler</t>
-  </si>
-  <si>
     <t>Good to Me</t>
   </si>
   <si>
-    <t xml:space="preserve"> Craig Musseau</t>
-  </si>
-  <si>
     <t>The Power of Your Love</t>
   </si>
   <si>
-    <t xml:space="preserve"> Geoff Bullock</t>
-  </si>
-  <si>
     <t>Awesome in This Place</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dave Billington</t>
-  </si>
-  <si>
     <t xml:space="preserve"> I Worship You Almighty God</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sondra Corbett Wood</t>
-  </si>
-  <si>
     <t>Seek Ye First</t>
   </si>
   <si>
-    <t xml:space="preserve"> Karen Lafferty</t>
-  </si>
-  <si>
     <t>Jesus, Draw Me Close</t>
   </si>
   <si>
-    <t xml:space="preserve"> Rick Founds</t>
-  </si>
-  <si>
     <t>Great Is the Lord</t>
   </si>
   <si>
-    <t xml:space="preserve"> Michael W. Smith and Deborah Smith</t>
-  </si>
-  <si>
     <t>Think About His Love</t>
   </si>
   <si>
-    <t xml:space="preserve"> Walt Harrah</t>
-  </si>
-  <si>
     <t>Draw Me Close</t>
   </si>
   <si>
-    <t xml:space="preserve"> Kelly Carpenter</t>
-  </si>
-  <si>
     <t>This Is Love</t>
   </si>
   <si>
-    <t xml:space="preserve"> Terry Butler and Mike Young</t>
-  </si>
-  <si>
     <t>Worthy, You Are Worthy</t>
   </si>
   <si>
-    <t xml:space="preserve"> Don Moen</t>
-  </si>
-  <si>
     <t>Come Just As You Are</t>
   </si>
   <si>
-    <t xml:space="preserve"> Joseph Sabolick</t>
-  </si>
-  <si>
     <t>To Him Who Sits on the Throne</t>
   </si>
   <si>
-    <t xml:space="preserve"> Debbye Graafsma</t>
+    <t>Your Grace Is Enough</t>
+  </si>
+  <si>
+    <t>Everlasting God</t>
+  </si>
+  <si>
+    <t>Shout Unto God</t>
+  </si>
+  <si>
+    <t>You Never Let Go</t>
+  </si>
+  <si>
+    <t>Amazing Grace</t>
+  </si>
+  <si>
+    <t>Mighty to Save</t>
+  </si>
+  <si>
+    <t>Revelation Song</t>
+  </si>
+  <si>
+    <t>Lead Me to the Cross</t>
+  </si>
+  <si>
+    <t>All Because of Jesus</t>
+  </si>
+  <si>
+    <t>The Wonderful Cross</t>
+  </si>
+  <si>
+    <t>Your Name</t>
+  </si>
+  <si>
+    <t>You Reign</t>
+  </si>
+  <si>
+    <t>New Song We Sing</t>
+  </si>
+  <si>
+    <t>Beautiful Jesus</t>
+  </si>
+  <si>
+    <t>I Am Free</t>
+  </si>
+  <si>
+    <t>Everything Glorious</t>
+  </si>
+  <si>
+    <t>God of this City</t>
+  </si>
+  <si>
+    <t>How Great is Our God</t>
+  </si>
+  <si>
+    <t>The River Is Here</t>
+  </si>
+  <si>
+    <t>Ancient Of Days</t>
+  </si>
+  <si>
+    <t>Let It Rise</t>
+  </si>
+  <si>
+    <t>Let The River Flow</t>
+  </si>
+  <si>
+    <t>Change My Heart Oh God</t>
+  </si>
+  <si>
+    <t>The Heart Of Worship</t>
+  </si>
+  <si>
+    <t>Shout to the Lord</t>
+  </si>
+  <si>
+    <t>Open The Eyes Of My Heart</t>
+  </si>
+  <si>
+    <t>Refiner's Fire</t>
+  </si>
+  <si>
+    <t>Blessed Be The Name Of The Lord</t>
+  </si>
+  <si>
+    <t>I Love You Lord</t>
+  </si>
+  <si>
+    <t>Father I Adore You</t>
+  </si>
+  <si>
+    <t>In His Time</t>
+  </si>
+  <si>
+    <t>Give Thanks</t>
+  </si>
+  <si>
+    <t>Come Into His Presence</t>
+  </si>
+  <si>
+    <t>Lord, I Lift Your Name on High</t>
+  </si>
+  <si>
+    <t>My Life Is In You, Lord</t>
+  </si>
+  <si>
+    <t>Mighty Is Our God</t>
+  </si>
+  <si>
+    <t>We Will Embrace Your Move</t>
+  </si>
+  <si>
+    <t>I Will Celebrate</t>
+  </si>
+  <si>
+    <t>Blessed Be The Lord God Almighty</t>
+  </si>
+  <si>
+    <t>Come Let Us Worship And Bow Down</t>
+  </si>
+  <si>
+    <t>Jesus Name Above All Names</t>
+  </si>
+  <si>
+    <t>Come, Now Is The Time To Worship</t>
+  </si>
+  <si>
+    <t>Take My Life</t>
+  </si>
+  <si>
+    <t>More Love More Power</t>
+  </si>
+  <si>
+    <t>Isn't He</t>
+  </si>
+  <si>
+    <t>More Precious Than Silver</t>
+  </si>
+  <si>
+    <t>Open Our Eyes</t>
+  </si>
+  <si>
+    <t>I Could Sing Of Your Love Forever</t>
+  </si>
+  <si>
+    <t>Majestic</t>
+  </si>
+  <si>
+    <t>Unto The One</t>
+  </si>
+  <si>
+    <t>Hear Us From Heaven</t>
+  </si>
+  <si>
+    <t>All Things</t>
+  </si>
+  <si>
+    <t>My Savior Lives</t>
+  </si>
+  <si>
+    <t>God Of All Splendor</t>
+  </si>
+  <si>
+    <t>Bless His Name</t>
+  </si>
+  <si>
+    <t>If You Say Go</t>
+  </si>
+  <si>
+    <t>Unfailing Love</t>
+  </si>
+  <si>
+    <t>Almighty God</t>
+  </si>
+  <si>
+    <t>Did You Feel/Mountains Tremble</t>
+  </si>
+  <si>
+    <t>Light the Fire Again</t>
+  </si>
+  <si>
+    <t>Rock of Ages</t>
+  </si>
+  <si>
+    <t>Hungry</t>
+  </si>
+  <si>
+    <t>Better Is One Day</t>
+  </si>
+  <si>
+    <t>In That Day</t>
+  </si>
+  <si>
+    <t>We Want To See Jesus Lifted High</t>
+  </si>
+  <si>
+    <t>Worship You</t>
+  </si>
+  <si>
+    <t>In the Secret</t>
+  </si>
+  <si>
+    <t>I Walk By Faith</t>
+  </si>
+  <si>
+    <t>Redeemer Savior Friend</t>
+  </si>
+  <si>
+    <t>Jesus, Lover of My Soul</t>
+  </si>
+  <si>
+    <t>You Are God</t>
+  </si>
+  <si>
+    <t>We Will Dance</t>
+  </si>
+  <si>
+    <t>I Will Not Forget You</t>
+  </si>
+  <si>
+    <t>Andy Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamie Harvill &amp; Gary Sadler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holland Davis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darrell Evans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eddie Espinosa </t>
+  </si>
+  <si>
+    <t>Darlene Zschech</t>
+  </si>
+  <si>
+    <t>Paul Baloche</t>
+  </si>
+  <si>
+    <t>Brian Doerksen</t>
+  </si>
+  <si>
+    <t>Don Moen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurie Klein </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrye Coelho Strom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diane Ball </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry Smith </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lynn Baird </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rick Founds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Gardner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eugene Greco </t>
+  </si>
+  <si>
+    <t>Darrell Evans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linda Duvall </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob Fitts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dave Doherty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naida Hearn </t>
+  </si>
+  <si>
+    <t>Scott Underwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jude Del Hierro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Wimber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lynn DeShazo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob Cull </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Smith </t>
+  </si>
+  <si>
+    <t>Lincoln Brewster</t>
+  </si>
+  <si>
+    <t>Matt Papa</t>
+  </si>
+  <si>
+    <t>Gateway Worship</t>
+  </si>
+  <si>
+    <t>Jared Anderson</t>
+  </si>
+  <si>
+    <t>Jeremy Scott</t>
+  </si>
+  <si>
+    <t>New Life Worship</t>
+  </si>
+  <si>
+    <t>Robbie Reider</t>
+  </si>
+  <si>
+    <t>Robbie Reider and Casey Corum</t>
+  </si>
+  <si>
+    <t>Rita Springer</t>
+  </si>
+  <si>
+    <t>Nigel Briggs &amp; TRENT</t>
+  </si>
+  <si>
+    <t>Joel Engle</t>
+  </si>
+  <si>
+    <t>Delirious?</t>
+  </si>
+  <si>
+    <t>Praise Band</t>
+  </si>
+  <si>
+    <t>Kathryn Scott</t>
+  </si>
+  <si>
+    <t>Charlie Hall</t>
+  </si>
+  <si>
+    <t>Noel Richards</t>
+  </si>
+  <si>
+    <t>Jami Smith</t>
+  </si>
+  <si>
+    <t>Sonicflood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Falson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darrell Evans and Chris Springer </t>
+  </si>
+  <si>
+    <t>David Ruis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph Vogels </t>
+  </si>
+  <si>
+    <t>The Maranatha! Singers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Alleluia Singers </t>
+  </si>
+  <si>
+    <t>Keith Matten</t>
+  </si>
+  <si>
+    <t>Randy Butler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Baloche </t>
+  </si>
+  <si>
+    <t>Chris Falson</t>
+  </si>
+  <si>
+    <t>Graham Kendrick</t>
+  </si>
+  <si>
+    <t>Ron Kenoly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin J. Nystrom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donna Adkins </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wayne and Cathy Perrin </t>
+  </si>
+  <si>
+    <t>Lenny LeBlanc</t>
+  </si>
+  <si>
+    <t>Geron Davis</t>
+  </si>
+  <si>
+    <t>Victory Chant</t>
+  </si>
+  <si>
+    <t>Celebrate Jesus</t>
+  </si>
+  <si>
+    <t>I Believe in Jesus</t>
+  </si>
+  <si>
+    <t>Holy and Anointed One</t>
+  </si>
+  <si>
+    <t>He Is Able</t>
+  </si>
+  <si>
+    <t>Above All</t>
+  </si>
+  <si>
+    <t>I See the Lord</t>
+  </si>
+  <si>
+    <t>Awesome God</t>
+  </si>
+  <si>
+    <t>God Is Good All the Time</t>
+  </si>
+  <si>
+    <t>Shine Jesus Shine</t>
+  </si>
+  <si>
+    <t>Jesus Is Alive</t>
+  </si>
+  <si>
+    <t>God Will Make A Way</t>
+  </si>
+  <si>
+    <t>As the Deer</t>
+  </si>
+  <si>
+    <t>Glorify Thy Name</t>
+  </si>
+  <si>
+    <t>When I Look Into Your Holiness</t>
+  </si>
+  <si>
+    <t>There Is None Like You</t>
+  </si>
+  <si>
+    <t>Holy Ground</t>
+  </si>
+  <si>
+    <t>Falling On My Knees</t>
+  </si>
+  <si>
+    <t>Brian Doerksen, Wendy Whitehead</t>
+  </si>
+  <si>
+    <t>Michael W. Smith</t>
+  </si>
+  <si>
+    <t>Rebecca St. James</t>
+  </si>
+  <si>
+    <t>Mac Powell and Cliff &amp; Danielle Young (of Caedmon's Call)</t>
+  </si>
+  <si>
+    <t>Amy Grant</t>
+  </si>
+  <si>
+    <t>Caedmon's Call</t>
+  </si>
+  <si>
+    <t>Nichole Nordeman</t>
+  </si>
+  <si>
+    <t>Jeff Deyo (of SONICFLOOd) &amp; Lisa Kimmey</t>
+  </si>
+  <si>
+    <t>Joy Williams</t>
+  </si>
+  <si>
+    <t>NewSong</t>
+  </si>
+  <si>
+    <t>Out of Eden</t>
+  </si>
+  <si>
+    <t>Nicole C. Mullen</t>
+  </si>
+  <si>
+    <t>4Him</t>
+  </si>
+  <si>
+    <t>Rich Mullins</t>
+  </si>
+  <si>
+    <t>Third Day</t>
+  </si>
+  <si>
+    <t>Mark Schultz</t>
+  </si>
+  <si>
+    <t>Jeff Deyo</t>
+  </si>
+  <si>
+    <t>Tim Hughes</t>
+  </si>
+  <si>
+    <t>Adrienne Liesching and Geoff Moore</t>
+  </si>
+  <si>
+    <t>The Katinas</t>
+  </si>
+  <si>
+    <t>FFH</t>
+  </si>
+  <si>
+    <t>Phillips, Craig and Dean</t>
+  </si>
+  <si>
+    <t>Passion Band</t>
+  </si>
+  <si>
+    <t>Chris Tomlin with Matt Redman</t>
+  </si>
+  <si>
+    <t>Twila Paris</t>
+  </si>
+  <si>
+    <t>Jars of Clay</t>
+  </si>
+  <si>
+    <t>Keith Green</t>
+  </si>
+  <si>
+    <t>GlassByrd</t>
+  </si>
+  <si>
+    <t>Bebo Norman</t>
+  </si>
+  <si>
+    <t>Jaci Velasquez</t>
+  </si>
+  <si>
+    <t>Matt Redman and Tim Hughes</t>
+  </si>
+  <si>
+    <t>ZOEgirl</t>
+  </si>
+  <si>
+    <t>Michael Frye and Kathryn Scott</t>
+  </si>
+  <si>
+    <t>Steven Curtis Chapman with Chris Tomlin</t>
+  </si>
+  <si>
+    <t>Planetshakers</t>
+  </si>
+  <si>
+    <t>Jeremy Camp</t>
+  </si>
+  <si>
+    <t>SONICFLOOd</t>
+  </si>
+  <si>
+    <t>Brenton Brown</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>Paul Colman Trio</t>
+  </si>
+  <si>
+    <t>Randy Travis</t>
+  </si>
+  <si>
+    <t>Jeremy Riddle</t>
+  </si>
+  <si>
+    <t>Rich Mullins and Bebo Norman</t>
+  </si>
+  <si>
+    <t>By The Tree</t>
+  </si>
+  <si>
+    <t>Tree63</t>
+  </si>
+  <si>
+    <t>Bethany Dillon</t>
+  </si>
+  <si>
+    <t>BarlowGirl</t>
+  </si>
+  <si>
+    <t>Israel and New Breed</t>
+  </si>
+  <si>
+    <t>Vicky Beeching</t>
+  </si>
+  <si>
+    <t>Josh Bates</t>
+  </si>
+  <si>
+    <t>Passion Band featuring Christy Nockels</t>
+  </si>
+  <si>
+    <t>Kutless</t>
+  </si>
+  <si>
+    <t>Selah</t>
+  </si>
+  <si>
+    <t>Avalon</t>
+  </si>
+  <si>
+    <t>Warren Barfield</t>
+  </si>
+  <si>
+    <t>Pocket Full of Rocks</t>
+  </si>
+  <si>
+    <t>God Of Wonders</t>
+  </si>
+  <si>
+    <t>Imagine</t>
+  </si>
+  <si>
+    <t>Majesty</t>
+  </si>
+  <si>
+    <t>You Are My All In All</t>
+  </si>
+  <si>
+    <t>I Could Sing of Your Love Forever</t>
+  </si>
+  <si>
+    <t>Forever</t>
+  </si>
+  <si>
+    <t>You Are My King</t>
+  </si>
+  <si>
+    <t>I Give You My Heart</t>
+  </si>
+  <si>
+    <t>Let Everything That Has Breath</t>
+  </si>
+  <si>
+    <t>Redeemer</t>
+  </si>
+  <si>
+    <t>Thy Word</t>
+  </si>
+  <si>
+    <t>Audience of One</t>
+  </si>
+  <si>
+    <t>Shout To The Lord</t>
+  </si>
+  <si>
+    <t>More Love, More Power</t>
+  </si>
+  <si>
+    <t>Here I Am To Worship</t>
+  </si>
+  <si>
+    <t>In Christ Alone</t>
+  </si>
+  <si>
+    <t>The Happy Song</t>
+  </si>
+  <si>
+    <t>The Heart of Worship</t>
+  </si>
+  <si>
+    <t>Be Thou My Vision</t>
+  </si>
+  <si>
+    <t>Oh Lord, You're Beautiful</t>
+  </si>
+  <si>
+    <t>I Stand Amazed</t>
+  </si>
+  <si>
+    <t>Our Love Is Loud</t>
+  </si>
+  <si>
+    <t>Famous One</t>
+  </si>
+  <si>
+    <t>You Are So Good To Me</t>
+  </si>
+  <si>
+    <t>Amazing Love</t>
+  </si>
+  <si>
+    <t>Give Us Clean Hands</t>
+  </si>
+  <si>
+    <t>The Potter's Hand</t>
+  </si>
+  <si>
+    <t>Sanctuary</t>
+  </si>
+  <si>
+    <t>Once Again</t>
+  </si>
+  <si>
+    <t>How Deep The Father's Love For Us</t>
+  </si>
+  <si>
+    <t>Be the Centre</t>
+  </si>
+  <si>
+    <t>What A Friend We Have In Jesus/Old Rugged Cross/How Great Thou Art</t>
+  </si>
+  <si>
+    <t>We Will Glorify</t>
+  </si>
+  <si>
+    <t>Enough</t>
+  </si>
+  <si>
+    <t>Did You Feel the Mountains Tremble</t>
+  </si>
+  <si>
+    <t>Lord I Lift Your Name on High</t>
+  </si>
+  <si>
+    <t>As The Deer</t>
+  </si>
+  <si>
+    <t>Let My Words Be Few</t>
+  </si>
+  <si>
+    <t>Word of God Speak</t>
+  </si>
+  <si>
+    <t>Open the Eyes of My Heart</t>
+  </si>
+  <si>
+    <t>Spirit of The Living God</t>
+  </si>
+  <si>
+    <t>There Is A Redeemer</t>
+  </si>
+  <si>
+    <t>I Exalt Thee</t>
+  </si>
+  <si>
+    <t>I'll Fly Away</t>
+  </si>
+  <si>
+    <t>Step By Step</t>
+  </si>
+  <si>
+    <t>Reprise</t>
+  </si>
+  <si>
+    <t>Your Love Oh Lord</t>
+  </si>
+  <si>
+    <t>Psalm 36</t>
+  </si>
+  <si>
+    <t>Beautiful Savior</t>
+  </si>
+  <si>
+    <t>All I Want Is You</t>
+  </si>
+  <si>
+    <t>Hallelujah</t>
+  </si>
+  <si>
+    <t>Your Love Is Amazing</t>
+  </si>
+  <si>
+    <t>May The Words of My Mouth</t>
+  </si>
+  <si>
+    <t>More Than A Friend</t>
+  </si>
+  <si>
+    <t>You Are Holy</t>
+  </si>
+  <si>
+    <t>Here I Am</t>
+  </si>
+  <si>
+    <t>How Great Is Our God</t>
+  </si>
+  <si>
+    <t>Holy Is the Lord</t>
+  </si>
+  <si>
+    <t>Who Am I</t>
+  </si>
+  <si>
+    <t>Be Glorified</t>
+  </si>
+  <si>
+    <t>Step by Step</t>
+  </si>
+  <si>
+    <t>Beautiful One</t>
+  </si>
+  <si>
+    <t>Blessed Be Your Name</t>
+  </si>
+  <si>
+    <t>He Reigns</t>
+  </si>
+  <si>
+    <t>Here I Am to Worship</t>
+  </si>
+  <si>
+    <t>No One Like You</t>
+  </si>
+  <si>
+    <t>You Are Good</t>
+  </si>
+  <si>
+    <t>Yesterday, Today and Forever</t>
+  </si>
+  <si>
+    <t>King of Glory</t>
+  </si>
+  <si>
+    <t>Grace Flows Down</t>
+  </si>
+  <si>
+    <t>Wonderful Maker</t>
+  </si>
+  <si>
+    <t>Friend of God</t>
+  </si>
+  <si>
+    <t>All Who Are Thirsty</t>
+  </si>
+  <si>
+    <t>Wonderful, Merciful Saviour</t>
+  </si>
+  <si>
+    <t>Indescribable</t>
+  </si>
+  <si>
+    <t>My Glorious</t>
+  </si>
+  <si>
+    <t>Days of Elijah</t>
+  </si>
+  <si>
+    <t>El Shaddai</t>
+  </si>
+  <si>
+    <t>Worthy Is the Lamb</t>
+  </si>
+  <si>
+    <t>Alive Forever, Amen</t>
+  </si>
+  <si>
+    <t>Falling</t>
+  </si>
+  <si>
+    <t>Prince of Peace</t>
+  </si>
+  <si>
+    <t>O Praise Him</t>
+  </si>
+  <si>
+    <t>All This for a King</t>
+  </si>
+  <si>
+    <t>Praise is Raising</t>
+  </si>
+  <si>
+    <t>Majesty by Leeland</t>
+  </si>
+  <si>
+    <t>Leeland</t>
+  </si>
+  <si>
+    <t>Robbie Seay Band</t>
+  </si>
+  <si>
+    <t>Big Daddy Weave, BarlowGirl</t>
+  </si>
+  <si>
+    <t>Aaron Shust</t>
+  </si>
+  <si>
+    <t>Israel Houghton</t>
+  </si>
+  <si>
+    <t>One Sonic Society</t>
+  </si>
+  <si>
+    <t>Marvelous Light</t>
+  </si>
+  <si>
+    <t>Song of Hope</t>
+  </si>
+  <si>
+    <t>Desert Song</t>
+  </si>
+  <si>
+    <t>My Savior My God</t>
+  </si>
+  <si>
+    <t>Happy Day</t>
+  </si>
+  <si>
+    <t>Forever Reign</t>
+  </si>
+  <si>
+    <t>Our God</t>
+  </si>
+  <si>
+    <t>Redeemed</t>
+  </si>
+  <si>
+    <t>Love Came Down</t>
+  </si>
+  <si>
+    <t>White Flag</t>
+  </si>
+  <si>
+    <t>Your Great Name</t>
+  </si>
+  <si>
+    <t>Beautiful Things</t>
+  </si>
+  <si>
+    <t>Gods Not Dead</t>
+  </si>
+  <si>
+    <t>Like a Lion</t>
+  </si>
+  <si>
+    <t>Bless the Lord</t>
+  </si>
+  <si>
+    <t>Oceans</t>
+  </si>
+  <si>
+    <t>Where Feet May Fail</t>
+  </si>
+  <si>
+    <t>How He Loves</t>
+  </si>
+  <si>
+    <t>Glorious Day</t>
+  </si>
+  <si>
+    <t>Living He Loved Me</t>
+  </si>
+  <si>
+    <t>One Thing Remains</t>
+  </si>
+  <si>
+    <t>Open Up the Heavens</t>
+  </si>
+  <si>
+    <t>Vertical Church Band</t>
+  </si>
+  <si>
+    <t>Lord I Need You</t>
+  </si>
+  <si>
+    <t>10,000 Reasons</t>
+  </si>
+  <si>
+    <t>Matt Maher </t>
+  </si>
+  <si>
+    <t>Lincoln Brewster </t>
+  </si>
+  <si>
+    <t>Michael W. Smith </t>
+  </si>
+  <si>
+    <t>Matt Redman </t>
+  </si>
+  <si>
+    <t>Chris Tomlin </t>
+  </si>
+  <si>
+    <t>Hillsong United </t>
+  </si>
+  <si>
+    <t>Kari Jobe </t>
+  </si>
+  <si>
+    <t>Francesca Battistelli </t>
+  </si>
+  <si>
+    <t>Brenton Brown </t>
+  </si>
+  <si>
+    <t>Casting Crowns </t>
+  </si>
+  <si>
+    <t>Matthew West </t>
+  </si>
+  <si>
+    <t>Paul Baloche </t>
+  </si>
+  <si>
+    <t>MercyMe </t>
+  </si>
+  <si>
+    <t>Meredith Andrews </t>
+  </si>
+  <si>
+    <t>Kristian Stanfill </t>
+  </si>
+  <si>
+    <t>Newsboys </t>
+  </si>
+  <si>
+    <t>David Crowder*Band </t>
+  </si>
+  <si>
+    <t>Paul Baloche and Gary Sadler</t>
+  </si>
+  <si>
+    <t>Tommy Walker</t>
+  </si>
+  <si>
+    <t>Lamont Hierbert</t>
+  </si>
+  <si>
+    <t>Brenton Brown and Brian Doerksen</t>
+  </si>
+  <si>
+    <t>Reuben Morgan</t>
+  </si>
+  <si>
+    <t>Tom Wuest</t>
+  </si>
+  <si>
+    <t>Marie Barnett</t>
+  </si>
+  <si>
+    <t>Martin Smith</t>
+  </si>
+  <si>
+    <t>Ken Thomas, Tommy Walker</t>
+  </si>
+  <si>
+    <t>Carl Tuttle</t>
+  </si>
+  <si>
+    <t>Terry Butler</t>
+  </si>
+  <si>
+    <t>Craig Musseau</t>
+  </si>
+  <si>
+    <t>Geoff Bullock</t>
+  </si>
+  <si>
+    <t>Dave Billington</t>
+  </si>
+  <si>
+    <t>Sondra Corbett Wood</t>
+  </si>
+  <si>
+    <t>Karen Lafferty</t>
+  </si>
+  <si>
+    <t>Rick Founds</t>
+  </si>
+  <si>
+    <t>Michael W. Smith and Deborah Smith</t>
+  </si>
+  <si>
+    <t>Walt Harrah</t>
+  </si>
+  <si>
+    <t>Kelly Carpenter</t>
+  </si>
+  <si>
+    <t>Terry Butler and Mike Young</t>
+  </si>
+  <si>
+    <t>Joseph Sabolick</t>
+  </si>
+  <si>
+    <t>Debbye Graafsma</t>
+  </si>
+  <si>
+    <t>Compilation</t>
   </si>
 </sst>
 </file>
@@ -1534,11 +1769,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A72AE-D7D6-4773-81D3-DA95E2C1E4B7}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1585,6 +1824,13 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
+      <c r="E2" t="str">
+        <f>IF(COUNTIF(Songs!$C:$C,C2)&gt;0,"","NO")</f>
+        <v/>
+      </c>
+      <c r="G2" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -1593,6 +1839,13 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
+      <c r="E3" t="str">
+        <f>IF(COUNTIF(Songs!$C:$C,C3)&gt;0,"","NO")</f>
+        <v/>
+      </c>
+      <c r="G3" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -1601,6 +1854,13 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
+      <c r="E4" t="str">
+        <f>IF(COUNTIF(Songs!$C:$C,C4)&gt;0,"","NO")</f>
+        <v/>
+      </c>
+      <c r="G4" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -1609,6 +1869,16 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
+      <c r="E5" t="str">
+        <f>IF(COUNTIF(Songs!$C:$C,C5)&gt;0,"","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G5" t="s">
+        <v>445</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -1617,6 +1887,13 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
+      <c r="E6" t="str">
+        <f>IF(COUNTIF(Songs!$C:$C,C6)&gt;0,"","NO")</f>
+        <v/>
+      </c>
+      <c r="G6" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -1625,6 +1902,13 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
+      <c r="E7" t="str">
+        <f>IF(COUNTIF(Songs!$C:$C,C7)&gt;0,"","NO")</f>
+        <v/>
+      </c>
+      <c r="G7" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -1633,6 +1917,13 @@
       <c r="C8" t="s">
         <v>25</v>
       </c>
+      <c r="E8" t="str">
+        <f>IF(COUNTIF(Songs!$C:$C,C8)&gt;0,"","NO")</f>
+        <v/>
+      </c>
+      <c r="G8" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -1641,6 +1932,13 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
+      <c r="E9" t="str">
+        <f>IF(COUNTIF(Songs!$C:$C,C9)&gt;0,"","NO")</f>
+        <v/>
+      </c>
+      <c r="G9" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -1649,6 +1947,16 @@
       <c r="C10" t="s">
         <v>27</v>
       </c>
+      <c r="E10" t="str">
+        <f>IF(COUNTIF(Songs!$C:$C,C10)&gt;0,"","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G10" t="s">
+        <v>445</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -1657,8 +1965,16 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
+      <c r="E11" t="str">
+        <f>IF(COUNTIF(Songs!$C:$C,C11)&gt;0,"","NO")</f>
+        <v/>
+      </c>
+      <c r="G11" t="s">
+        <v>445</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L11" xr:uid="{DADEA857-8D92-4EB2-AD68-89A1135CBF86}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1667,12 +1983,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A4DDDD-6A6B-4652-8F48-DA8A30E1B4E0}">
   <dimension ref="A1:K253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1720,7 +2040,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1734,7 +2057,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1748,7 +2074,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1762,7 +2091,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1776,7 +2108,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1790,7 +2125,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1804,7 +2142,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1818,7 +2159,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1832,7 +2176,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1846,7 +2193,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1860,7 +2210,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1874,7 +2227,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1888,7 +2244,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1902,7 +2261,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>108</v>
+      </c>
+      <c r="G15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1916,10 +2278,13 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1999</v>
       </c>
@@ -1930,10 +2295,13 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1999</v>
       </c>
@@ -1944,10 +2312,13 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="G18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1999</v>
       </c>
@@ -1958,10 +2329,13 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="G19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1999</v>
       </c>
@@ -1972,10 +2346,13 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="G20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1999</v>
       </c>
@@ -1986,10 +2363,13 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="G21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1999</v>
       </c>
@@ -2000,10 +2380,13 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="G22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1999</v>
       </c>
@@ -2014,10 +2397,13 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1999</v>
       </c>
@@ -2028,10 +2414,13 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1999</v>
       </c>
@@ -2042,10 +2431,13 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="G25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1999</v>
       </c>
@@ -2056,10 +2448,13 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="G26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1999</v>
       </c>
@@ -2070,10 +2465,13 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="G27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1999</v>
       </c>
@@ -2084,10 +2482,13 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="G28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1999</v>
       </c>
@@ -2098,10 +2499,13 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="G29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1999</v>
       </c>
@@ -2112,10 +2516,13 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="G30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1999</v>
       </c>
@@ -2126,10 +2533,13 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1999</v>
       </c>
@@ -2140,10 +2550,13 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="G32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1999</v>
       </c>
@@ -2154,10 +2567,13 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1999</v>
       </c>
@@ -2168,10 +2584,13 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1999</v>
       </c>
@@ -2182,10 +2601,13 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1999</v>
       </c>
@@ -2196,10 +2618,13 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="G36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1999</v>
       </c>
@@ -2210,10 +2635,13 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1999</v>
       </c>
@@ -2224,10 +2652,13 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="G38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1999</v>
       </c>
@@ -2238,10 +2669,13 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="G39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>1999</v>
       </c>
@@ -2252,10 +2686,13 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="G40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>1999</v>
       </c>
@@ -2266,10 +2703,13 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="G41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1999</v>
       </c>
@@ -2280,10 +2720,13 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="G42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2000</v>
       </c>
@@ -2294,10 +2737,13 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="G43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2000</v>
       </c>
@@ -2308,10 +2754,13 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="G44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2000</v>
       </c>
@@ -2322,10 +2771,13 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="G45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2000</v>
       </c>
@@ -2336,10 +2788,16 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="F46" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2000</v>
       </c>
@@ -2350,10 +2808,13 @@
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="G47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2000</v>
       </c>
@@ -2364,10 +2825,13 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="G48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>2000</v>
       </c>
@@ -2378,10 +2842,13 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="G49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>2000</v>
       </c>
@@ -2392,10 +2859,13 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>2000</v>
       </c>
@@ -2406,10 +2876,13 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="G51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>2000</v>
       </c>
@@ -2420,10 +2893,13 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="G52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>2000</v>
       </c>
@@ -2434,10 +2910,13 @@
         <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="G53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>2000</v>
       </c>
@@ -2448,10 +2927,13 @@
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>2000</v>
       </c>
@@ -2462,10 +2944,13 @@
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="G55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>2000</v>
       </c>
@@ -2476,10 +2961,13 @@
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="G56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>2000</v>
       </c>
@@ -2490,10 +2978,13 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="G57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>2000</v>
       </c>
@@ -2504,10 +2995,13 @@
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="G58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>2000</v>
       </c>
@@ -2518,10 +3012,13 @@
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="G59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>2000</v>
       </c>
@@ -2532,10 +3029,13 @@
         <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="G60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>2000</v>
       </c>
@@ -2546,10 +3046,13 @@
         <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="G61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>2000</v>
       </c>
@@ -2560,10 +3063,13 @@
         <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="G62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>2000</v>
       </c>
@@ -2574,10 +3080,13 @@
         <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="G63" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>2000</v>
       </c>
@@ -2588,10 +3097,13 @@
         <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="G64" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>2000</v>
       </c>
@@ -2602,10 +3114,13 @@
         <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="G65" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>2000</v>
       </c>
@@ -2616,10 +3131,13 @@
         <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="G66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>2000</v>
       </c>
@@ -2630,10 +3148,13 @@
         <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="G67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>2000</v>
       </c>
@@ -2644,10 +3165,13 @@
         <v>26</v>
       </c>
       <c r="E68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="G68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>2000</v>
       </c>
@@ -2658,10 +3182,13 @@
         <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="G69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>2000</v>
       </c>
@@ -2672,10 +3199,13 @@
         <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="G70" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>2000</v>
       </c>
@@ -2686,10 +3216,13 @@
         <v>29</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="G71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>2000</v>
       </c>
@@ -2700,10 +3233,13 @@
         <v>30</v>
       </c>
       <c r="E72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="G72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>2000</v>
       </c>
@@ -2714,10 +3250,13 @@
         <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="G73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>2000</v>
       </c>
@@ -2728,10 +3267,13 @@
         <v>32</v>
       </c>
       <c r="E74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="G74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>2000</v>
       </c>
@@ -2742,10 +3284,13 @@
         <v>33</v>
       </c>
       <c r="E75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="G75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>2001</v>
       </c>
@@ -2756,13 +3301,13 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>304</v>
-      </c>
-      <c r="F76" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G76" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>2002</v>
       </c>
@@ -2773,13 +3318,13 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>306</v>
-      </c>
-      <c r="F77" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G77" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>2003</v>
       </c>
@@ -2790,13 +3335,13 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>308</v>
-      </c>
-      <c r="F78" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>2004</v>
       </c>
@@ -2807,13 +3352,13 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>310</v>
-      </c>
-      <c r="F79" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="G79" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>2005</v>
       </c>
@@ -2824,13 +3369,13 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>312</v>
-      </c>
-      <c r="F80" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G80" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>2006</v>
       </c>
@@ -2841,13 +3386,13 @@
         <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>314</v>
-      </c>
-      <c r="F81" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>2007</v>
       </c>
@@ -2858,13 +3403,13 @@
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>316</v>
-      </c>
-      <c r="F82" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>2008</v>
       </c>
@@ -2875,13 +3420,13 @@
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>318</v>
-      </c>
-      <c r="F83" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G83" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>2009</v>
       </c>
@@ -2892,13 +3437,13 @@
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>319</v>
-      </c>
-      <c r="F84" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G84" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>2010</v>
       </c>
@@ -2909,13 +3454,13 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>321</v>
-      </c>
-      <c r="F85" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G85" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>2011</v>
       </c>
@@ -2926,13 +3471,13 @@
         <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>323</v>
-      </c>
-      <c r="F86" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G86" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>2012</v>
       </c>
@@ -2943,13 +3488,13 @@
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>325</v>
-      </c>
-      <c r="F87" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="G87" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>2013</v>
       </c>
@@ -2960,13 +3505,13 @@
         <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>327</v>
-      </c>
-      <c r="F88" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="G88" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>2014</v>
       </c>
@@ -2977,13 +3522,13 @@
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>328</v>
-      </c>
-      <c r="F89" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G89" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>2015</v>
       </c>
@@ -2994,13 +3539,13 @@
         <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>330</v>
-      </c>
-      <c r="F90" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G90" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>2016</v>
       </c>
@@ -3011,13 +3556,13 @@
         <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>332</v>
-      </c>
-      <c r="F91" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="G91" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>2017</v>
       </c>
@@ -3028,13 +3573,13 @@
         <v>17</v>
       </c>
       <c r="E92" t="s">
-        <v>334</v>
-      </c>
-      <c r="F92" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="G92" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>2018</v>
       </c>
@@ -3045,13 +3590,13 @@
         <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>336</v>
-      </c>
-      <c r="F93" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="G93" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>2019</v>
       </c>
@@ -3062,13 +3607,13 @@
         <v>19</v>
       </c>
       <c r="E94" t="s">
-        <v>338</v>
-      </c>
-      <c r="F94" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="G94" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>2020</v>
       </c>
@@ -3079,13 +3624,13 @@
         <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>340</v>
-      </c>
-      <c r="F95" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="G95" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>2021</v>
       </c>
@@ -3096,13 +3641,13 @@
         <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>342</v>
-      </c>
-      <c r="F96" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="G96" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2022</v>
       </c>
@@ -3113,13 +3658,13 @@
         <v>22</v>
       </c>
       <c r="E97" t="s">
-        <v>344</v>
-      </c>
-      <c r="F97" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G97" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2023</v>
       </c>
@@ -3130,13 +3675,13 @@
         <v>23</v>
       </c>
       <c r="E98" t="s">
-        <v>346</v>
-      </c>
-      <c r="F98" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G98" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>2024</v>
       </c>
@@ -3147,13 +3692,13 @@
         <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>348</v>
-      </c>
-      <c r="F99" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="G99" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>2025</v>
       </c>
@@ -3164,13 +3709,13 @@
         <v>25</v>
       </c>
       <c r="E100" t="s">
-        <v>350</v>
-      </c>
-      <c r="F100" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="G100" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>2026</v>
       </c>
@@ -3181,13 +3726,13 @@
         <v>26</v>
       </c>
       <c r="E101" t="s">
-        <v>352</v>
-      </c>
-      <c r="F101" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="G101" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>2027</v>
       </c>
@@ -3198,13 +3743,13 @@
         <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>354</v>
-      </c>
-      <c r="F102" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>2028</v>
       </c>
@@ -3215,13 +3760,13 @@
         <v>28</v>
       </c>
       <c r="E103" t="s">
-        <v>356</v>
-      </c>
-      <c r="F103" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="G103" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>2029</v>
       </c>
@@ -3232,13 +3777,13 @@
         <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>358</v>
-      </c>
-      <c r="F104" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="G104" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>2030</v>
       </c>
@@ -3249,13 +3794,13 @@
         <v>30</v>
       </c>
       <c r="E105" t="s">
-        <v>360</v>
-      </c>
-      <c r="F105" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="G105" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>2031</v>
       </c>
@@ -3266,13 +3811,13 @@
         <v>31</v>
       </c>
       <c r="E106" t="s">
-        <v>362</v>
-      </c>
-      <c r="F106" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="G106" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>2032</v>
       </c>
@@ -3283,13 +3828,13 @@
         <v>32</v>
       </c>
       <c r="E107" t="s">
-        <v>364</v>
-      </c>
-      <c r="F107" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="G107" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>2033</v>
       </c>
@@ -3300,13 +3845,13 @@
         <v>33</v>
       </c>
       <c r="E108" t="s">
-        <v>366</v>
-      </c>
-      <c r="F108" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="G108" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>2003</v>
       </c>
@@ -3317,10 +3862,13 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="G109" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>2003</v>
       </c>
@@ -3331,10 +3879,13 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G110" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>2003</v>
       </c>
@@ -3345,10 +3896,13 @@
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="G111" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>2003</v>
       </c>
@@ -3359,10 +3913,13 @@
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="G112" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>2003</v>
       </c>
@@ -3373,10 +3930,13 @@
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="G113" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>2003</v>
       </c>
@@ -3387,10 +3947,13 @@
         <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="G114" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>2003</v>
       </c>
@@ -3401,10 +3964,13 @@
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="G115" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>2003</v>
       </c>
@@ -3415,10 +3981,16 @@
         <v>8</v>
       </c>
       <c r="E116" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="F116" t="s">
+        <v>230</v>
+      </c>
+      <c r="G116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>2003</v>
       </c>
@@ -3429,10 +4001,13 @@
         <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="G117" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>2003</v>
       </c>
@@ -3443,10 +4018,13 @@
         <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="G118" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>2003</v>
       </c>
@@ -3457,10 +4035,13 @@
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="G119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>2003</v>
       </c>
@@ -3471,10 +4052,13 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="G120" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>2003</v>
       </c>
@@ -3485,10 +4069,13 @@
         <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="G121" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>2003</v>
       </c>
@@ -3499,10 +4086,13 @@
         <v>14</v>
       </c>
       <c r="E122" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="G122" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>2003</v>
       </c>
@@ -3513,10 +4103,13 @@
         <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="G123" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>2003</v>
       </c>
@@ -3527,10 +4120,16 @@
         <v>16</v>
       </c>
       <c r="E124" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="F124" t="s">
+        <v>333</v>
+      </c>
+      <c r="G124" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>2003</v>
       </c>
@@ -3541,10 +4140,13 @@
         <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="G125" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>2003</v>
       </c>
@@ -3555,10 +4157,16 @@
         <v>18</v>
       </c>
       <c r="E126" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="F126" t="s">
+        <v>335</v>
+      </c>
+      <c r="G126" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>2003</v>
       </c>
@@ -3569,10 +4177,13 @@
         <v>19</v>
       </c>
       <c r="E127" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="G127" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>2003</v>
       </c>
@@ -3583,10 +4194,13 @@
         <v>20</v>
       </c>
       <c r="E128" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="G128" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>2003</v>
       </c>
@@ -3597,10 +4211,13 @@
         <v>21</v>
       </c>
       <c r="E129" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="G129" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>2003</v>
       </c>
@@ -3611,10 +4228,13 @@
         <v>22</v>
       </c>
       <c r="E130" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="G130" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>2003</v>
       </c>
@@ -3625,10 +4245,13 @@
         <v>23</v>
       </c>
       <c r="E131" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="G131" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>2003</v>
       </c>
@@ -3639,10 +4262,13 @@
         <v>24</v>
       </c>
       <c r="E132" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="G132" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>2003</v>
       </c>
@@ -3653,10 +4279,13 @@
         <v>25</v>
       </c>
       <c r="E133" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="G133" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>2003</v>
       </c>
@@ -3667,10 +4296,13 @@
         <v>26</v>
       </c>
       <c r="E134" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="G134" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>2003</v>
       </c>
@@ -3681,10 +4313,13 @@
         <v>27</v>
       </c>
       <c r="E135" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="G135" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>2003</v>
       </c>
@@ -3695,10 +4330,13 @@
         <v>28</v>
       </c>
       <c r="E136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G136" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>2003</v>
       </c>
@@ -3709,10 +4347,13 @@
         <v>29</v>
       </c>
       <c r="E137" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="G137" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>2003</v>
       </c>
@@ -3723,10 +4364,13 @@
         <v>30</v>
       </c>
       <c r="E138" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="G138" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>2003</v>
       </c>
@@ -3737,10 +4381,13 @@
         <v>31</v>
       </c>
       <c r="E139" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="G139" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>2003</v>
       </c>
@@ -3751,10 +4398,13 @@
         <v>32</v>
       </c>
       <c r="E140" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="G140" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>2003</v>
       </c>
@@ -3765,10 +4415,13 @@
         <v>33</v>
       </c>
       <c r="E141" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="G141" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>2004</v>
       </c>
@@ -3779,10 +4432,13 @@
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="G142" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>2004</v>
       </c>
@@ -3793,10 +4449,13 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="G143" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>2004</v>
       </c>
@@ -3807,10 +4466,13 @@
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="G144" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>2004</v>
       </c>
@@ -3821,10 +4483,13 @@
         <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="G145" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>2004</v>
       </c>
@@ -3835,10 +4500,13 @@
         <v>5</v>
       </c>
       <c r="E146" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="G146" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>2004</v>
       </c>
@@ -3849,10 +4517,13 @@
         <v>6</v>
       </c>
       <c r="E147" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="G147" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>2004</v>
       </c>
@@ -3863,10 +4534,13 @@
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="G148" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>2004</v>
       </c>
@@ -3877,10 +4551,13 @@
         <v>8</v>
       </c>
       <c r="E149" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="G149" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>2004</v>
       </c>
@@ -3891,10 +4568,13 @@
         <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G150" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>2004</v>
       </c>
@@ -3905,10 +4585,13 @@
         <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G151" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>2004</v>
       </c>
@@ -3919,10 +4602,13 @@
         <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="G152" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>2004</v>
       </c>
@@ -3933,10 +4619,13 @@
         <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="G153" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>2004</v>
       </c>
@@ -3947,10 +4636,13 @@
         <v>13</v>
       </c>
       <c r="E154" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G154" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>2004</v>
       </c>
@@ -3961,10 +4653,13 @@
         <v>14</v>
       </c>
       <c r="E155" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="G155" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>2004</v>
       </c>
@@ -3975,10 +4670,13 @@
         <v>15</v>
       </c>
       <c r="E156" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="G156" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>2004</v>
       </c>
@@ -3989,10 +4687,13 @@
         <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="G157" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>2004</v>
       </c>
@@ -4003,10 +4704,13 @@
         <v>17</v>
       </c>
       <c r="E158" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="G158" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>2004</v>
       </c>
@@ -4017,10 +4721,13 @@
         <v>18</v>
       </c>
       <c r="E159" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="G159" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>2004</v>
       </c>
@@ -4031,10 +4738,13 @@
         <v>19</v>
       </c>
       <c r="E160" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="G160" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>2004</v>
       </c>
@@ -4045,10 +4755,13 @@
         <v>20</v>
       </c>
       <c r="E161" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="G161" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>2004</v>
       </c>
@@ -4059,10 +4772,16 @@
         <v>21</v>
       </c>
       <c r="E162" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F162" t="s">
+        <v>339</v>
+      </c>
+      <c r="G162" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>2004</v>
       </c>
@@ -4073,10 +4792,13 @@
         <v>22</v>
       </c>
       <c r="E163" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="G163" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>2004</v>
       </c>
@@ -4087,10 +4809,13 @@
         <v>23</v>
       </c>
       <c r="E164" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="G164" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>2004</v>
       </c>
@@ -4101,10 +4826,13 @@
         <v>24</v>
       </c>
       <c r="E165" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="G165" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>2004</v>
       </c>
@@ -4115,10 +4843,13 @@
         <v>25</v>
       </c>
       <c r="E166" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G166" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>2004</v>
       </c>
@@ -4129,10 +4860,13 @@
         <v>26</v>
       </c>
       <c r="E167" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="G167" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>2004</v>
       </c>
@@ -4143,10 +4877,13 @@
         <v>27</v>
       </c>
       <c r="E168" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G168" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>2004</v>
       </c>
@@ -4157,10 +4894,13 @@
         <v>28</v>
       </c>
       <c r="E169" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="G169" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>2004</v>
       </c>
@@ -4171,10 +4911,13 @@
         <v>29</v>
       </c>
       <c r="E170" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="G170" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>2004</v>
       </c>
@@ -4185,10 +4928,13 @@
         <v>30</v>
       </c>
       <c r="E171" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="G171" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>2004</v>
       </c>
@@ -4199,10 +4945,13 @@
         <v>31</v>
       </c>
       <c r="E172" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="G172" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>2004</v>
       </c>
@@ -4213,10 +4962,13 @@
         <v>32</v>
       </c>
       <c r="E173" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="G173" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>2004</v>
       </c>
@@ -4227,10 +4979,13 @@
         <v>33</v>
       </c>
       <c r="E174" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="G174" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>2004</v>
       </c>
@@ -4241,10 +4996,13 @@
         <v>34</v>
       </c>
       <c r="E175" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="G175" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>2006</v>
       </c>
@@ -4255,10 +5013,13 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="G176" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>2006</v>
       </c>
@@ -4269,10 +5030,13 @@
         <v>2</v>
       </c>
       <c r="E177" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="G177" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>2006</v>
       </c>
@@ -4283,10 +5047,13 @@
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="G178" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>2006</v>
       </c>
@@ -4297,10 +5064,13 @@
         <v>4</v>
       </c>
       <c r="E179" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="G179" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>2006</v>
       </c>
@@ -4311,10 +5081,13 @@
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="G180" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>2006</v>
       </c>
@@ -4325,10 +5098,16 @@
         <v>6</v>
       </c>
       <c r="E181" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="F181" t="s">
+        <v>369</v>
+      </c>
+      <c r="G181" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>2006</v>
       </c>
@@ -4339,10 +5118,13 @@
         <v>7</v>
       </c>
       <c r="E182" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="G182" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>2006</v>
       </c>
@@ -4353,10 +5135,13 @@
         <v>8</v>
       </c>
       <c r="E183" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="G183" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>2006</v>
       </c>
@@ -4367,10 +5152,13 @@
         <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="G184" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>2006</v>
       </c>
@@ -4381,10 +5169,13 @@
         <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="G185" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>2006</v>
       </c>
@@ -4395,10 +5186,13 @@
         <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="G186" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>2006</v>
       </c>
@@ -4409,10 +5203,13 @@
         <v>12</v>
       </c>
       <c r="E187" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="G187" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>2006</v>
       </c>
@@ -4423,10 +5220,13 @@
         <v>13</v>
       </c>
       <c r="E188" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="G188" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>2006</v>
       </c>
@@ -4437,10 +5237,13 @@
         <v>14</v>
       </c>
       <c r="E189" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="G189" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>2006</v>
       </c>
@@ -4451,10 +5254,13 @@
         <v>15</v>
       </c>
       <c r="E190" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="G190" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>2006</v>
       </c>
@@ -4465,10 +5271,13 @@
         <v>16</v>
       </c>
       <c r="E191" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="G191" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>2006</v>
       </c>
@@ -4479,10 +5288,13 @@
         <v>17</v>
       </c>
       <c r="E192" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="G192" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>2006</v>
       </c>
@@ -4493,10 +5305,16 @@
         <v>18</v>
       </c>
       <c r="E193" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="F193" t="s">
+        <v>371</v>
+      </c>
+      <c r="G193" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>2006</v>
       </c>
@@ -4507,10 +5325,13 @@
         <v>19</v>
       </c>
       <c r="E194" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G194" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>2006</v>
       </c>
@@ -4521,10 +5342,13 @@
         <v>20</v>
       </c>
       <c r="E195" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="G195" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>2006</v>
       </c>
@@ -4535,10 +5359,13 @@
         <v>21</v>
       </c>
       <c r="E196" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G196" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>2006</v>
       </c>
@@ -4549,10 +5376,13 @@
         <v>22</v>
       </c>
       <c r="E197" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="G197" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>2006</v>
       </c>
@@ -4563,10 +5393,13 @@
         <v>23</v>
       </c>
       <c r="E198" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="G198" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>2006</v>
       </c>
@@ -4577,10 +5410,13 @@
         <v>24</v>
       </c>
       <c r="E199" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="G199" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>2006</v>
       </c>
@@ -4591,10 +5427,13 @@
         <v>25</v>
       </c>
       <c r="E200" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="G200" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>2006</v>
       </c>
@@ -4605,10 +5444,13 @@
         <v>26</v>
       </c>
       <c r="E201" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="G201" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>2006</v>
       </c>
@@ -4619,10 +5461,13 @@
         <v>27</v>
       </c>
       <c r="E202" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="G202" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>2006</v>
       </c>
@@ -4633,10 +5478,13 @@
         <v>28</v>
       </c>
       <c r="E203" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="G203" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>2006</v>
       </c>
@@ -4647,10 +5495,13 @@
         <v>29</v>
       </c>
       <c r="E204" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="G204" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>2006</v>
       </c>
@@ -4661,10 +5512,13 @@
         <v>30</v>
       </c>
       <c r="E205" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="G205" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>2006</v>
       </c>
@@ -4675,10 +5529,13 @@
         <v>31</v>
       </c>
       <c r="E206" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="G206" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>2006</v>
       </c>
@@ -4689,10 +5546,13 @@
         <v>32</v>
       </c>
       <c r="E207" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="G207" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>2006</v>
       </c>
@@ -4703,10 +5563,13 @@
         <v>33</v>
       </c>
       <c r="E208" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="G208" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>2010</v>
       </c>
@@ -4716,23 +5579,14 @@
       <c r="D209">
         <v>1</v>
       </c>
-      <c r="E209">
-        <v>1</v>
-      </c>
-      <c r="F209" t="s">
-        <v>203</v>
-      </c>
-      <c r="G209" t="s">
-        <v>231</v>
-      </c>
-      <c r="H209" t="s">
-        <v>232</v>
-      </c>
-      <c r="I209" s="3">
-        <v>0.18333333333333335</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>77</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>2010</v>
       </c>
@@ -4742,23 +5596,14 @@
       <c r="D210">
         <v>2</v>
       </c>
-      <c r="E210">
-        <v>2</v>
-      </c>
-      <c r="F210" t="s">
-        <v>204</v>
-      </c>
-      <c r="G210" t="s">
-        <v>205</v>
-      </c>
-      <c r="H210" t="s">
-        <v>233</v>
-      </c>
-      <c r="I210" s="3">
-        <v>0.19930555555555554</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>78</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>2010</v>
       </c>
@@ -4768,23 +5613,14 @@
       <c r="D211">
         <v>3</v>
       </c>
-      <c r="E211">
-        <v>3</v>
-      </c>
-      <c r="F211" t="s">
-        <v>206</v>
-      </c>
-      <c r="G211" t="s">
-        <v>234</v>
-      </c>
-      <c r="H211" t="s">
-        <v>235</v>
-      </c>
-      <c r="I211" s="3">
-        <v>0.1423611111111111</v>
-      </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>79</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>2010</v>
       </c>
@@ -4794,23 +5630,14 @@
       <c r="D212">
         <v>4</v>
       </c>
-      <c r="E212">
-        <v>4</v>
-      </c>
-      <c r="F212" t="s">
-        <v>207</v>
-      </c>
-      <c r="G212" t="s">
-        <v>208</v>
-      </c>
-      <c r="H212" t="s">
-        <v>236</v>
-      </c>
-      <c r="I212" s="3">
-        <v>0.19930555555555554</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>80</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>2010</v>
       </c>
@@ -4820,23 +5647,14 @@
       <c r="D213">
         <v>5</v>
       </c>
-      <c r="E213">
-        <v>5</v>
-      </c>
-      <c r="F213" t="s">
-        <v>209</v>
-      </c>
-      <c r="G213" t="s">
-        <v>210</v>
-      </c>
-      <c r="H213" t="s">
-        <v>237</v>
-      </c>
-      <c r="I213" s="3">
-        <v>0.18472222222222223</v>
-      </c>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>81</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>2010</v>
       </c>
@@ -4846,23 +5664,14 @@
       <c r="D214">
         <v>6</v>
       </c>
-      <c r="E214">
-        <v>6</v>
-      </c>
-      <c r="F214" t="s">
-        <v>211</v>
-      </c>
-      <c r="G214" t="s">
-        <v>212</v>
-      </c>
-      <c r="H214" t="s">
-        <v>238</v>
-      </c>
-      <c r="I214" s="3">
-        <v>0.22291666666666665</v>
-      </c>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>82</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>2010</v>
       </c>
@@ -4872,23 +5681,14 @@
       <c r="D215">
         <v>7</v>
       </c>
-      <c r="E215">
-        <v>7</v>
-      </c>
-      <c r="F215" t="s">
-        <v>213</v>
-      </c>
-      <c r="G215" t="s">
-        <v>214</v>
-      </c>
-      <c r="H215" t="s">
-        <v>239</v>
-      </c>
-      <c r="I215" s="3">
-        <v>0.25138888888888888</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>83</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>2010</v>
       </c>
@@ -4898,23 +5698,14 @@
       <c r="D216">
         <v>8</v>
       </c>
-      <c r="E216">
-        <v>8</v>
-      </c>
-      <c r="F216" t="s">
-        <v>215</v>
-      </c>
-      <c r="G216" t="s">
-        <v>216</v>
-      </c>
-      <c r="H216" t="s">
-        <v>217</v>
-      </c>
-      <c r="I216" s="3">
-        <v>0.18958333333333333</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>84</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>2010</v>
       </c>
@@ -4924,23 +5715,17 @@
       <c r="D217">
         <v>9</v>
       </c>
-      <c r="E217">
-        <v>9</v>
+      <c r="E217" t="s">
+        <v>62</v>
       </c>
       <c r="F217" t="s">
-        <v>218</v>
-      </c>
-      <c r="G217" t="s">
-        <v>219</v>
-      </c>
-      <c r="H217" t="s">
-        <v>240</v>
-      </c>
-      <c r="I217" s="3">
-        <v>0.18958333333333333</v>
-      </c>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>2010</v>
       </c>
@@ -4950,23 +5735,14 @@
       <c r="D218">
         <v>10</v>
       </c>
-      <c r="E218">
-        <v>10</v>
-      </c>
-      <c r="F218" t="s">
-        <v>220</v>
-      </c>
-      <c r="G218" t="s">
-        <v>221</v>
-      </c>
-      <c r="H218" t="s">
-        <v>241</v>
-      </c>
-      <c r="I218" s="3">
-        <v>0.20555555555555557</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>85</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>2010</v>
       </c>
@@ -4976,23 +5752,14 @@
       <c r="D219">
         <v>11</v>
       </c>
-      <c r="E219">
-        <v>11</v>
-      </c>
-      <c r="F219" t="s">
-        <v>222</v>
-      </c>
-      <c r="G219" t="s">
-        <v>223</v>
-      </c>
-      <c r="H219" t="s">
-        <v>224</v>
-      </c>
-      <c r="I219" s="3">
-        <v>0.21388888888888891</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>86</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>2010</v>
       </c>
@@ -5002,23 +5769,14 @@
       <c r="D220">
         <v>12</v>
       </c>
-      <c r="E220">
-        <v>12</v>
-      </c>
-      <c r="F220" t="s">
-        <v>225</v>
-      </c>
-      <c r="G220" t="s">
-        <v>226</v>
-      </c>
-      <c r="H220" t="s">
-        <v>242</v>
-      </c>
-      <c r="I220" s="3">
-        <v>0.23472222222222219</v>
-      </c>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>87</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>2010</v>
       </c>
@@ -5028,23 +5786,14 @@
       <c r="D221">
         <v>13</v>
       </c>
-      <c r="E221">
-        <v>13</v>
-      </c>
-      <c r="F221" t="s">
-        <v>227</v>
-      </c>
-      <c r="G221" t="s">
-        <v>243</v>
-      </c>
-      <c r="H221" t="s">
-        <v>244</v>
-      </c>
-      <c r="I221" s="3">
-        <v>0.16041666666666668</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>88</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>2010</v>
       </c>
@@ -5054,23 +5803,14 @@
       <c r="D222">
         <v>14</v>
       </c>
-      <c r="E222">
-        <v>14</v>
-      </c>
-      <c r="F222" t="s">
-        <v>228</v>
-      </c>
-      <c r="G222" t="s">
-        <v>245</v>
-      </c>
-      <c r="H222" t="s">
-        <v>246</v>
-      </c>
-      <c r="I222" s="3">
-        <v>0.16250000000000001</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>89</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>2010</v>
       </c>
@@ -5080,23 +5820,14 @@
       <c r="D223">
         <v>15</v>
       </c>
-      <c r="E223">
-        <v>15</v>
-      </c>
-      <c r="F223" t="s">
-        <v>229</v>
-      </c>
-      <c r="G223" t="s">
-        <v>247</v>
-      </c>
-      <c r="H223" t="s">
-        <v>230</v>
-      </c>
-      <c r="I223" s="3">
-        <v>0.17500000000000002</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
+        <v>90</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>2010</v>
       </c>
@@ -5106,20 +5837,14 @@
       <c r="D224">
         <v>16</v>
       </c>
-      <c r="E224">
-        <v>1</v>
-      </c>
-      <c r="F224" t="s">
-        <v>248</v>
-      </c>
-      <c r="G224" t="s">
-        <v>249</v>
-      </c>
-      <c r="H224" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>91</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>2010</v>
       </c>
@@ -5129,20 +5854,14 @@
       <c r="D225">
         <v>17</v>
       </c>
-      <c r="E225">
-        <v>2</v>
-      </c>
-      <c r="F225" t="s">
-        <v>250</v>
-      </c>
-      <c r="G225" t="s">
-        <v>251</v>
-      </c>
-      <c r="H225" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>92</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>2010</v>
       </c>
@@ -5152,20 +5871,14 @@
       <c r="D226">
         <v>18</v>
       </c>
-      <c r="E226">
-        <v>3</v>
-      </c>
-      <c r="F226" t="s">
-        <v>252</v>
-      </c>
-      <c r="G226" t="s">
-        <v>253</v>
-      </c>
-      <c r="H226" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E226" t="s">
+        <v>93</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>2010</v>
       </c>
@@ -5175,20 +5888,14 @@
       <c r="D227">
         <v>19</v>
       </c>
-      <c r="E227">
-        <v>4</v>
-      </c>
-      <c r="F227" t="s">
-        <v>254</v>
+      <c r="E227" t="s">
+        <v>94</v>
       </c>
       <c r="G227" t="s">
-        <v>269</v>
-      </c>
-      <c r="H227" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>2010</v>
       </c>
@@ -5198,14 +5905,17 @@
       <c r="D228">
         <v>20</v>
       </c>
-      <c r="E228">
-        <v>5</v>
+      <c r="E228" t="s">
+        <v>373</v>
       </c>
       <c r="F228" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="G228" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>2010</v>
       </c>
@@ -5215,14 +5925,15 @@
       <c r="D229">
         <v>21</v>
       </c>
-      <c r="E229">
-        <v>6</v>
-      </c>
-      <c r="F229" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E229" t="s">
+        <v>313</v>
+      </c>
+      <c r="G229" t="s">
+        <v>283</v>
+      </c>
+      <c r="I229" s="3"/>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>2010</v>
       </c>
@@ -5232,14 +5943,15 @@
       <c r="D230">
         <v>22</v>
       </c>
-      <c r="E230">
-        <v>7</v>
-      </c>
-      <c r="F230" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>62</v>
+      </c>
+      <c r="G230" t="s">
+        <v>284</v>
+      </c>
+      <c r="I230" s="3"/>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>2010</v>
       </c>
@@ -5249,14 +5961,15 @@
       <c r="D231">
         <v>23</v>
       </c>
-      <c r="E231">
-        <v>8</v>
-      </c>
-      <c r="F231" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E231" t="s">
+        <v>380</v>
+      </c>
+      <c r="G231" t="s">
+        <v>192</v>
+      </c>
+      <c r="I231" s="3"/>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>2010</v>
       </c>
@@ -5266,14 +5979,15 @@
       <c r="D232">
         <v>24</v>
       </c>
-      <c r="E232">
-        <v>9</v>
-      </c>
-      <c r="F232" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E232" t="s">
+        <v>381</v>
+      </c>
+      <c r="G232" t="s">
+        <v>375</v>
+      </c>
+      <c r="I232" s="3"/>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>2010</v>
       </c>
@@ -5283,14 +5997,15 @@
       <c r="D233">
         <v>25</v>
       </c>
-      <c r="E233">
-        <v>10</v>
-      </c>
-      <c r="F233" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>382</v>
+      </c>
+      <c r="G233" t="s">
+        <v>41</v>
+      </c>
+      <c r="I233" s="3"/>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>2010</v>
       </c>
@@ -5300,14 +6015,15 @@
       <c r="D234">
         <v>26</v>
       </c>
-      <c r="E234">
-        <v>11</v>
-      </c>
-      <c r="F234" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>56</v>
+      </c>
+      <c r="G234" t="s">
+        <v>376</v>
+      </c>
+      <c r="I234" s="3"/>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>2010</v>
       </c>
@@ -5317,14 +6033,15 @@
       <c r="D235">
         <v>27</v>
       </c>
-      <c r="E235">
-        <v>12</v>
-      </c>
-      <c r="F235" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E235" t="s">
+        <v>383</v>
+      </c>
+      <c r="G235" t="s">
+        <v>377</v>
+      </c>
+      <c r="I235" s="3"/>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>2010</v>
       </c>
@@ -5334,14 +6051,15 @@
       <c r="D236">
         <v>28</v>
       </c>
-      <c r="E236">
-        <v>13</v>
-      </c>
-      <c r="F236" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>354</v>
+      </c>
+      <c r="G236" t="s">
+        <v>378</v>
+      </c>
+      <c r="I236" s="3"/>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>2010</v>
       </c>
@@ -5351,14 +6069,15 @@
       <c r="D237">
         <v>29</v>
       </c>
-      <c r="E237">
-        <v>14</v>
-      </c>
-      <c r="F237" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>384</v>
+      </c>
+      <c r="G237" t="s">
+        <v>248</v>
+      </c>
+      <c r="I237" s="3"/>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>2010</v>
       </c>
@@ -5368,267 +6087,299 @@
       <c r="D238">
         <v>30</v>
       </c>
-      <c r="E238">
+      <c r="E238" t="s">
+        <v>385</v>
+      </c>
+      <c r="G238" t="s">
+        <v>379</v>
+      </c>
+      <c r="I238" s="3"/>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>2014</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239" t="s">
+        <v>386</v>
+      </c>
+      <c r="G239" t="s">
+        <v>30</v>
+      </c>
+      <c r="I239" s="3"/>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>2014</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="E240" t="s">
+        <v>392</v>
+      </c>
+      <c r="F240" t="s">
+        <v>393</v>
+      </c>
+      <c r="G240" t="s">
+        <v>31</v>
+      </c>
+      <c r="I240" s="3"/>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>2014</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241">
+        <v>3</v>
+      </c>
+      <c r="E241" t="s">
+        <v>404</v>
+      </c>
+      <c r="F241" t="s">
+        <v>394</v>
+      </c>
+      <c r="G241" t="s">
+        <v>32</v>
+      </c>
+      <c r="I241" s="3"/>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>2014</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242">
+        <v>4</v>
+      </c>
+      <c r="E242" t="s">
+        <v>403</v>
+      </c>
+      <c r="G242" t="s">
+        <v>33</v>
+      </c>
+      <c r="I242" s="3"/>
+      <c r="J242" s="4"/>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>2014</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243">
+        <v>5</v>
+      </c>
+      <c r="E243" t="s">
+        <v>395</v>
+      </c>
+      <c r="F243" t="s">
+        <v>396</v>
+      </c>
+      <c r="G243" t="s">
+        <v>34</v>
+      </c>
+      <c r="I243" s="3"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>2014</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244">
+        <v>6</v>
+      </c>
+      <c r="E244" t="s">
+        <v>397</v>
+      </c>
+      <c r="G244" t="s">
+        <v>35</v>
+      </c>
+      <c r="I244" s="3"/>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>2014</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245">
+        <v>7</v>
+      </c>
+      <c r="E245" t="s">
+        <v>387</v>
+      </c>
+      <c r="G245" t="s">
+        <v>36</v>
+      </c>
+      <c r="I245" s="3"/>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>2014</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246">
+        <v>8</v>
+      </c>
+      <c r="E246" t="s">
+        <v>388</v>
+      </c>
+      <c r="G246" t="s">
+        <v>37</v>
+      </c>
+      <c r="I246" s="3"/>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>2014</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247">
+        <v>9</v>
+      </c>
+      <c r="E247" t="s">
+        <v>389</v>
+      </c>
+      <c r="G247" t="s">
+        <v>38</v>
+      </c>
+      <c r="I247" s="3"/>
+      <c r="J247" s="4"/>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>2014</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248">
+        <v>10</v>
+      </c>
+      <c r="E248" t="s">
+        <v>398</v>
+      </c>
+      <c r="F248" t="s">
+        <v>399</v>
+      </c>
+      <c r="G248" t="s">
+        <v>39</v>
+      </c>
+      <c r="I248" s="3"/>
+      <c r="J248" s="4"/>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>2014</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249">
+        <v>11</v>
+      </c>
+      <c r="E249" t="s">
+        <v>400</v>
+      </c>
+      <c r="G249" t="s">
+        <v>40</v>
+      </c>
+      <c r="I249" s="3"/>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>2014</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250">
+        <v>12</v>
+      </c>
+      <c r="E250" t="s">
+        <v>401</v>
+      </c>
+      <c r="G250" t="s">
+        <v>402</v>
+      </c>
+      <c r="I250" s="3"/>
+      <c r="J250" s="4"/>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>2014</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251">
+        <v>13</v>
+      </c>
+      <c r="E251" t="s">
+        <v>390</v>
+      </c>
+      <c r="G251" t="s">
+        <v>41</v>
+      </c>
+      <c r="I251" s="3"/>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>2014</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252">
+        <v>14</v>
+      </c>
+      <c r="E252" t="s">
+        <v>385</v>
+      </c>
+      <c r="G252" t="s">
+        <v>42</v>
+      </c>
+      <c r="I252" s="3"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>2014</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253">
         <v>15</v>
       </c>
-      <c r="F238" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F239" t="s">
-        <v>271</v>
-      </c>
-      <c r="G239" t="s">
-        <v>272</v>
-      </c>
-      <c r="I239" s="3">
-        <v>0.19722222222222222</v>
-      </c>
-      <c r="J239" t="s">
-        <v>273</v>
-      </c>
-      <c r="K239" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F240" t="s">
-        <v>275</v>
-      </c>
-      <c r="G240" t="s">
-        <v>276</v>
-      </c>
-      <c r="I240" s="3">
-        <v>0.17430555555555557</v>
-      </c>
-      <c r="J240" t="s">
-        <v>273</v>
-      </c>
-      <c r="K240" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="241" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F241" t="s">
-        <v>277</v>
-      </c>
-      <c r="G241" t="s">
-        <v>278</v>
-      </c>
-      <c r="I241" s="3">
-        <v>0.17847222222222223</v>
-      </c>
-      <c r="J241" t="s">
-        <v>273</v>
-      </c>
-      <c r="K241" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="242" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F242" t="s">
-        <v>279</v>
-      </c>
-      <c r="G242" t="s">
-        <v>280</v>
-      </c>
-      <c r="I242" s="3">
-        <v>0.14375000000000002</v>
-      </c>
-      <c r="J242" s="4">
-        <v>1.29</v>
-      </c>
-      <c r="K242" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="243" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F243" t="s">
-        <v>282</v>
-      </c>
-      <c r="G243" t="s">
-        <v>283</v>
-      </c>
-      <c r="I243" s="3">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="J243" t="s">
-        <v>273</v>
-      </c>
-      <c r="K243" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="244" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F244" t="s">
-        <v>284</v>
-      </c>
-      <c r="G244" t="s">
-        <v>285</v>
-      </c>
-      <c r="I244" s="3">
-        <v>0.16944444444444443</v>
-      </c>
-      <c r="J244" t="s">
-        <v>273</v>
-      </c>
-      <c r="K244" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="245" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F245" t="s">
-        <v>286</v>
-      </c>
-      <c r="G245" t="s">
-        <v>287</v>
-      </c>
-      <c r="I245" s="3">
-        <v>0.19166666666666665</v>
-      </c>
-      <c r="J245" t="s">
-        <v>273</v>
-      </c>
-      <c r="K245" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="246" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F246" t="s">
-        <v>288</v>
-      </c>
-      <c r="G246" t="s">
-        <v>289</v>
-      </c>
-      <c r="I246" s="3">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="J246" t="s">
-        <v>273</v>
-      </c>
-      <c r="K246" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="247" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F247" t="s">
-        <v>290</v>
-      </c>
-      <c r="G247" t="s">
-        <v>291</v>
-      </c>
-      <c r="I247" s="3">
-        <v>0.19652777777777777</v>
-      </c>
-      <c r="J247" s="4">
-        <v>1.29</v>
-      </c>
-      <c r="K247" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="248" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F248" t="s">
-        <v>292</v>
-      </c>
-      <c r="G248" t="s">
-        <v>293</v>
-      </c>
-      <c r="I248" s="3">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="J248" s="4">
-        <v>1.29</v>
-      </c>
-      <c r="K248" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="249" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F249" t="s">
-        <v>294</v>
-      </c>
-      <c r="G249" t="s">
-        <v>295</v>
-      </c>
-      <c r="I249" s="3">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J249" t="s">
-        <v>273</v>
-      </c>
-      <c r="K249" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="250" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F250" t="s">
-        <v>296</v>
-      </c>
-      <c r="G250" t="s">
-        <v>297</v>
-      </c>
-      <c r="I250" s="3">
-        <v>0.18819444444444444</v>
-      </c>
-      <c r="J250" s="4">
-        <v>1.29</v>
-      </c>
-      <c r="K250" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="251" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F251" t="s">
-        <v>298</v>
-      </c>
-      <c r="G251" t="s">
-        <v>299</v>
-      </c>
-      <c r="I251" s="3">
-        <v>0.18055555555555555</v>
-      </c>
-      <c r="J251" t="s">
-        <v>273</v>
-      </c>
-      <c r="K251" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="252" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F252" t="s">
-        <v>300</v>
-      </c>
-      <c r="G252" t="s">
-        <v>301</v>
-      </c>
-      <c r="I252" s="3">
-        <v>0.19305555555555554</v>
-      </c>
-      <c r="J252" t="s">
-        <v>273</v>
-      </c>
-      <c r="K252" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="253" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F253" t="s">
-        <v>302</v>
+      <c r="E253" t="s">
+        <v>391</v>
       </c>
       <c r="G253" t="s">
-        <v>303</v>
-      </c>
-      <c r="I253" s="3">
-        <v>0.21388888888888891</v>
-      </c>
-      <c r="J253" t="s">
-        <v>273</v>
-      </c>
-      <c r="K253" t="s">
-        <v>274</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I253" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K75" xr:uid="{32DB7A01-82BB-4F87-9239-01271ED35F07}"/>

--- a/WorshipCreator.TestData/Source/Books/WowWorship/WowWorship.xlsx
+++ b/WorshipCreator.TestData/Source/Books/WowWorship/WowWorship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PageOptimizer\Data\WorshipCreator.TestData\Source\Books\WowWorship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193CFACC-961E-414C-9C6C-3287A00C2465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7591E14A-1799-47B6-B29A-05E3C9D49399}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{40751610-DF76-4D33-903F-AA5CACF61494}"/>
+    <workbookView xWindow="31440" yWindow="2640" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{40751610-DF76-4D33-903F-AA5CACF61494}"/>
   </bookViews>
   <sheets>
     <sheet name="Albums" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Albums!$A$1:$L$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Songs!$A$1:$K$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Songs!$A$1:$J$253</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="461">
   <si>
     <t>#</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>Tempo</t>
-  </si>
-  <si>
     <t>CCLI#</t>
   </si>
   <si>
@@ -1160,9 +1157,6 @@
     <t>Praise is Raising</t>
   </si>
   <si>
-    <t>Majesty by Leeland</t>
-  </si>
-  <si>
     <t>Leeland</t>
   </si>
   <si>
@@ -1304,9 +1298,6 @@
     <t>Newsboys </t>
   </si>
   <si>
-    <t>David Crowder*Band </t>
-  </si>
-  <si>
     <t>Paul Baloche and Gary Sadler</t>
   </si>
   <si>
@@ -1377,15 +1368,66 @@
   </si>
   <si>
     <t>Compilation</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Bb</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Eb</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Ab</t>
+  </si>
+  <si>
+    <t>David Crowder Band </t>
+  </si>
+  <si>
+    <t>Db</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Bb,C</t>
+  </si>
+  <si>
+    <t>Gm</t>
+  </si>
+  <si>
+    <t>Ab,Bb</t>
+  </si>
+  <si>
+    <t>Cm</t>
+  </si>
+  <si>
+    <t>D,E</t>
+  </si>
+  <si>
+    <t>C,D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1432,12 +1474,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1769,7 +1812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5A72AE-D7D6-4773-81D3-DA95E2C1E4B7}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1790,31 +1833,31 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1822,14 +1865,14 @@
         <v>1999</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="str">
         <f>IF(COUNTIF(Songs!$C:$C,C2)&gt;0,"","NO")</f>
         <v/>
       </c>
       <c r="G2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1837,14 +1880,14 @@
         <v>2000</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="str">
         <f>IF(COUNTIF(Songs!$C:$C,C3)&gt;0,"","NO")</f>
         <v/>
       </c>
       <c r="G3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1852,14 +1895,14 @@
         <v>2001</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="str">
         <f>IF(COUNTIF(Songs!$C:$C,C4)&gt;0,"","NO")</f>
         <v/>
       </c>
       <c r="G4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1867,17 +1910,17 @@
         <v>2002</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="str">
         <f>IF(COUNTIF(Songs!$C:$C,C5)&gt;0,"","NO")</f>
         <v>NO</v>
       </c>
       <c r="G5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1885,14 +1928,14 @@
         <v>2003</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="str">
         <f>IF(COUNTIF(Songs!$C:$C,C6)&gt;0,"","NO")</f>
         <v/>
       </c>
       <c r="G6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1900,14 +1943,14 @@
         <v>2004</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="str">
         <f>IF(COUNTIF(Songs!$C:$C,C7)&gt;0,"","NO")</f>
         <v/>
       </c>
       <c r="G7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1915,14 +1958,14 @@
         <v>2006</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="str">
         <f>IF(COUNTIF(Songs!$C:$C,C8)&gt;0,"","NO")</f>
         <v/>
       </c>
       <c r="G8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1930,14 +1973,14 @@
         <v>2010</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="str">
         <f>IF(COUNTIF(Songs!$C:$C,C9)&gt;0,"","NO")</f>
         <v/>
       </c>
       <c r="G9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1945,17 +1988,17 @@
         <v>2011</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="str">
         <f>IF(COUNTIF(Songs!$C:$C,C10)&gt;0,"","NO")</f>
         <v>NO</v>
       </c>
       <c r="G10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1963,14 +2006,14 @@
         <v>2014</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="str">
         <f>IF(COUNTIF(Songs!$C:$C,C11)&gt;0,"","NO")</f>
         <v/>
       </c>
       <c r="G11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -1981,20 +2024,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A4DDDD-6A6B-4652-8F48-DA8A30E1B4E0}">
-  <dimension ref="A1:K253"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I155" sqref="I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2019,269 +2064,266 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1999</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1999</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1999</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1999</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1999</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1999</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1999</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1999</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1999</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1999</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1999</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1999</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1999</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1999</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1999</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -2289,16 +2331,16 @@
         <v>1999</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -2306,16 +2348,16 @@
         <v>1999</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -2323,16 +2365,16 @@
         <v>1999</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -2340,16 +2382,16 @@
         <v>1999</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -2357,16 +2399,16 @@
         <v>1999</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -2374,16 +2416,16 @@
         <v>1999</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -2391,16 +2433,16 @@
         <v>1999</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -2408,16 +2450,16 @@
         <v>1999</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -2425,16 +2467,16 @@
         <v>1999</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -2442,16 +2484,16 @@
         <v>1999</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -2459,16 +2501,16 @@
         <v>1999</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -2476,16 +2518,16 @@
         <v>1999</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -2493,16 +2535,16 @@
         <v>1999</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -2510,16 +2552,16 @@
         <v>1999</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -2527,16 +2569,16 @@
         <v>1999</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -2544,16 +2586,16 @@
         <v>1999</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -2561,16 +2603,16 @@
         <v>1999</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -2578,16 +2620,16 @@
         <v>1999</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -2595,16 +2637,16 @@
         <v>1999</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -2612,16 +2654,16 @@
         <v>1999</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -2629,16 +2671,16 @@
         <v>1999</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -2646,16 +2688,16 @@
         <v>1999</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -2663,16 +2705,16 @@
         <v>1999</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -2680,16 +2722,16 @@
         <v>1999</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -2697,16 +2739,16 @@
         <v>1999</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -2714,16 +2756,16 @@
         <v>1999</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -2731,16 +2773,16 @@
         <v>2000</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -2748,16 +2790,16 @@
         <v>2000</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -2765,16 +2807,16 @@
         <v>2000</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -2782,19 +2824,19 @@
         <v>2000</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46">
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -2802,16 +2844,16 @@
         <v>2000</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47">
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -2819,16 +2861,16 @@
         <v>2000</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48">
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
@@ -2836,16 +2878,16 @@
         <v>2000</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49">
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -2853,16 +2895,16 @@
         <v>2000</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50">
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -2870,16 +2912,16 @@
         <v>2000</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
@@ -2887,16 +2929,16 @@
         <v>2000</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52">
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
@@ -2904,16 +2946,16 @@
         <v>2000</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53">
         <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
@@ -2921,16 +2963,16 @@
         <v>2000</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54">
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
@@ -2938,16 +2980,16 @@
         <v>2000</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55">
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
@@ -2955,16 +2997,16 @@
         <v>2000</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56">
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -2972,16 +3014,16 @@
         <v>2000</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57">
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
@@ -2989,16 +3031,16 @@
         <v>2000</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58">
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
@@ -3006,16 +3048,16 @@
         <v>2000</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59">
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
@@ -3023,16 +3065,16 @@
         <v>2000</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60">
         <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -3040,16 +3082,16 @@
         <v>2000</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61">
         <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
@@ -3057,16 +3099,16 @@
         <v>2000</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62">
         <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -3074,16 +3116,16 @@
         <v>2000</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63">
         <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
@@ -3091,3299 +3133,4327 @@
         <v>2000</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64">
         <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G64" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>2000</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65">
         <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G65" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>2000</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66">
         <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G66" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>2000</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67">
         <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>2000</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D68">
         <v>26</v>
       </c>
       <c r="E68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G68" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>2000</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69">
         <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G69" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>2000</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70">
         <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G70" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>2000</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71">
         <v>29</v>
       </c>
       <c r="E71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G71" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>2000</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D72">
         <v>30</v>
       </c>
       <c r="E72" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G72" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>2000</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73">
         <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G73" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>2000</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74">
         <v>32</v>
       </c>
       <c r="E74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G74" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>2000</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75">
         <v>33</v>
       </c>
       <c r="E75" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G75" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>2001</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="H76" t="s">
+        <v>449</v>
+      </c>
+      <c r="I76" s="5">
+        <v>2060552</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>2002</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="H77" t="s">
+        <v>460</v>
+      </c>
+      <c r="I77" s="5">
+        <v>2245140</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>2003</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="H78" t="s">
+        <v>454</v>
+      </c>
+      <c r="I78" s="5">
+        <v>2574653</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>2004</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D79">
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G79" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H79" t="s">
+        <v>443</v>
+      </c>
+      <c r="I79" s="5">
+        <v>1595726</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>2005</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D80">
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G80" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="H80" t="s">
+        <v>444</v>
+      </c>
+      <c r="I80" s="5">
+        <v>2668576</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>2006</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81">
         <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H81" t="s">
+        <v>448</v>
+      </c>
+      <c r="I81" s="5">
+        <v>2437367</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>2007</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D82">
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G82" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="H82" t="s">
+        <v>451</v>
+      </c>
+      <c r="I82" s="5">
+        <v>3326697</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>2008</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D83">
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G83" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="H83" t="s">
+        <v>448</v>
+      </c>
+      <c r="I83" s="5">
+        <v>2151368</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>2009</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D84">
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="H84" t="s">
+        <v>449</v>
+      </c>
+      <c r="I84" s="5">
+        <v>3091812</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>2010</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D85">
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G85" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H85" t="s">
+        <v>444</v>
+      </c>
+      <c r="I85" s="5">
+        <v>2490706</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>2011</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D86">
         <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G86" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="H86" t="s">
+        <v>448</v>
+      </c>
+      <c r="I86" s="5">
+        <v>2397964</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>2012</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D87">
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G87" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="H87" t="s">
+        <v>448</v>
+      </c>
+      <c r="I87" s="5">
+        <v>3047608</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>2013</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D88">
         <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G88" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H88" t="s">
+        <v>450</v>
+      </c>
+      <c r="I88" s="5">
+        <v>487976</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>2014</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D89">
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G89" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="H89" t="s">
+        <v>454</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1874117</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>2015</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D90">
         <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G90" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="H90" t="s">
+        <v>454</v>
+      </c>
+      <c r="I90" s="5">
+        <v>626713</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>2016</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91">
         <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G91" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="H91" t="s">
+        <v>449</v>
+      </c>
+      <c r="I91" s="5">
+        <v>1562261</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>2017</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D92">
         <v>17</v>
       </c>
       <c r="E92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G92" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="H92" t="s">
+        <v>448</v>
+      </c>
+      <c r="I92" s="5">
+        <v>2922140</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>2018</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D93">
         <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G93" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="H93" t="s">
+        <v>450</v>
+      </c>
+      <c r="I93" s="5">
+        <v>17827</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>2019</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D94">
         <v>19</v>
       </c>
       <c r="E94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G94" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="H94" t="s">
+        <v>449</v>
+      </c>
+      <c r="I94" s="5">
+        <v>21545</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>2020</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D95">
         <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G95" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="H95" t="s">
+        <v>459</v>
+      </c>
+      <c r="I95" s="5">
+        <v>844980</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>2021</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D96">
         <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G96" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="H96" t="s">
+        <v>449</v>
+      </c>
+      <c r="I96" s="5">
+        <v>313480</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>2022</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D97">
         <v>22</v>
       </c>
       <c r="E97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G97" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="H97" t="s">
+        <v>445</v>
+      </c>
+      <c r="I97" s="5">
+        <v>917491</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2023</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D98">
         <v>23</v>
       </c>
       <c r="E98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G98" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="H98" t="s">
+        <v>448</v>
+      </c>
+      <c r="I98" s="5">
+        <v>847554</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>2024</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D99">
         <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G99" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="H99" t="s">
+        <v>449</v>
+      </c>
+      <c r="I99" s="5">
+        <v>20807</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>2025</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D100">
         <v>25</v>
       </c>
       <c r="E100" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G100" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="H100" t="s">
+        <v>444</v>
+      </c>
+      <c r="I100" s="5">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>2026</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D101">
         <v>26</v>
       </c>
       <c r="E101" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G101" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="H101" t="s">
+        <v>450</v>
+      </c>
+      <c r="I101" s="5">
+        <v>443680</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>2027</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D102">
         <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G102" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="H102" t="s">
+        <v>444</v>
+      </c>
+      <c r="I102" s="5">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>2028</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D103">
         <v>28</v>
       </c>
       <c r="E103" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G103" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="H103" t="s">
+        <v>443</v>
+      </c>
+      <c r="I103" s="5">
+        <v>16299</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>2029</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D104">
         <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G104" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="H104" t="s">
+        <v>445</v>
+      </c>
+      <c r="I104" s="5">
+        <v>1459484</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>2030</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D105">
         <v>30</v>
       </c>
       <c r="E105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G105" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="H105" t="s">
+        <v>450</v>
+      </c>
+      <c r="I105" s="5">
+        <v>2477451</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>2031</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D106">
         <v>31</v>
       </c>
       <c r="E106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G106" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="H106" t="s">
+        <v>450</v>
+      </c>
+      <c r="I106" s="5">
+        <v>17384</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>2032</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D107">
         <v>32</v>
       </c>
       <c r="E107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G107" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="I107" s="5">
+        <v>1189479</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>2033</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D108">
         <v>33</v>
       </c>
       <c r="E108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G108" t="s">
+        <v>441</v>
+      </c>
+      <c r="H108" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I108" s="5">
+        <v>20429</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>2003</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G109" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="H109" t="s">
+        <v>458</v>
+      </c>
+      <c r="I109" s="5">
+        <v>41099</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>2003</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D110">
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G110" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="H110" t="s">
+        <v>454</v>
+      </c>
+      <c r="I110" s="5">
+        <v>1874117</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>2003</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G111" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="H111" t="s">
+        <v>457</v>
+      </c>
+      <c r="I111" s="5">
+        <v>3118757</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>2003</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G112" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>2003</v>
       </c>
       <c r="C113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D113">
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G113" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="H113" t="s">
+        <v>445</v>
+      </c>
+      <c r="I113" s="5">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>2003</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D114">
         <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G114" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="H114" t="s">
+        <v>450</v>
+      </c>
+      <c r="I114" s="5">
+        <v>825356</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>2003</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D115">
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G115" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="H115" t="s">
+        <v>450</v>
+      </c>
+      <c r="I115" s="5">
+        <v>1043199</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>2003</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D116">
         <v>8</v>
       </c>
       <c r="E116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G116" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="H116" t="s">
+        <v>444</v>
+      </c>
+      <c r="I116" s="5">
+        <v>2650364</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>2003</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D117">
         <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H117" t="s">
+        <v>454</v>
+      </c>
+      <c r="I117" s="5">
+        <v>3148428</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>2003</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D118">
         <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G118" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="H118" t="s">
+        <v>448</v>
+      </c>
+      <c r="I118" s="5">
+        <v>2456623</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>2003</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D119">
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G119" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="H119" t="s">
+        <v>449</v>
+      </c>
+      <c r="I119" s="5">
+        <v>1866132</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>2003</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D120">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G120" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="H120" t="s">
+        <v>443</v>
+      </c>
+      <c r="I120" s="5">
+        <v>1595726</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>2003</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D121">
         <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H121" t="s">
+        <v>448</v>
+      </c>
+      <c r="I121" s="5">
+        <v>2430979</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>2003</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D122">
         <v>14</v>
       </c>
       <c r="E122" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G122" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="H122" t="s">
+        <v>449</v>
+      </c>
+      <c r="I122" s="5">
+        <v>3149757</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>2003</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D123">
         <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G123" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="H123" t="s">
+        <v>450</v>
+      </c>
+      <c r="I123" s="5">
+        <v>14301</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>2003</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D124">
         <v>16</v>
       </c>
       <c r="E124" t="s">
+        <v>331</v>
+      </c>
+      <c r="F124" t="s">
         <v>332</v>
       </c>
-      <c r="F124" t="s">
-        <v>333</v>
-      </c>
       <c r="G124" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="H124" t="s">
+        <v>449</v>
+      </c>
+      <c r="I124" s="5">
+        <v>696994</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>2003</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D125">
         <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="H125" t="s">
+        <v>443</v>
+      </c>
+      <c r="I125" s="5">
+        <v>3504512</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>2003</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D126">
         <v>18</v>
       </c>
       <c r="E126" t="s">
+        <v>333</v>
+      </c>
+      <c r="F126" t="s">
         <v>334</v>
       </c>
-      <c r="F126" t="s">
-        <v>335</v>
-      </c>
       <c r="G126" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="H126" t="s">
+        <v>449</v>
+      </c>
+      <c r="I126" s="5">
+        <v>1894255</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>2003</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D127">
         <v>19</v>
       </c>
       <c r="E127" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G127" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="H127" t="s">
+        <v>454</v>
+      </c>
+      <c r="I127" s="5">
+        <v>1406918</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>2003</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D128">
         <v>20</v>
       </c>
       <c r="E128" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G128" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="H128" t="s">
+        <v>456</v>
+      </c>
+      <c r="I128" s="5">
+        <v>60661</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>2003</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D129">
         <v>21</v>
       </c>
       <c r="E129" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G129" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="H129" t="s">
+        <v>448</v>
+      </c>
+      <c r="I129" s="5">
+        <v>3266032</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>2003</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D130">
         <v>22</v>
       </c>
       <c r="E130" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G130" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="H130" t="s">
+        <v>447</v>
+      </c>
+      <c r="I130" s="5">
+        <v>3350395</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>2003</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D131">
         <v>23</v>
       </c>
       <c r="E131" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G131" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="H131" t="s">
+        <v>445</v>
+      </c>
+      <c r="I131" s="5">
+        <v>1459484</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>2003</v>
       </c>
       <c r="C132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D132">
         <v>24</v>
       </c>
       <c r="E132" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G132" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="H132" t="s">
+        <v>449</v>
+      </c>
+      <c r="I132" s="5">
+        <v>1043209</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>2003</v>
       </c>
       <c r="C133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D133">
         <v>25</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G133" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="H133" t="s">
+        <v>448</v>
+      </c>
+      <c r="I133" s="5">
+        <v>1097451</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>2003</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D134">
         <v>26</v>
       </c>
       <c r="E134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G134" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="H134" t="s">
+        <v>443</v>
+      </c>
+      <c r="I134" s="5">
+        <v>2430948</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>2003</v>
       </c>
       <c r="C135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D135">
         <v>27</v>
       </c>
       <c r="E135" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G135" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="H135" t="s">
+        <v>443</v>
+      </c>
+      <c r="I135" s="5">
+        <v>2296522</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>2003</v>
       </c>
       <c r="C136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D136">
         <v>28</v>
       </c>
       <c r="E136" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G136" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="H136" t="s">
+        <v>443</v>
+      </c>
+      <c r="I136" s="5">
+        <v>3148435</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>2003</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D137">
         <v>29</v>
       </c>
       <c r="E137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G137" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="H137" t="s">
+        <v>450</v>
+      </c>
+      <c r="I137" s="5">
+        <v>17827</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>2003</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D138">
         <v>30</v>
       </c>
       <c r="E138" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G138" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="H138" t="s">
+        <v>443</v>
+      </c>
+      <c r="I138" s="5">
+        <v>7056332</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>2003</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D139">
         <v>31</v>
       </c>
       <c r="E139" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G139" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H139" t="s">
+        <v>443</v>
+      </c>
+      <c r="I139" s="5">
+        <v>14514</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>2003</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D140">
         <v>32</v>
       </c>
       <c r="E140" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G140" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H140" t="s">
+        <v>443</v>
+      </c>
+      <c r="I140" s="5">
+        <v>4026484</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>2003</v>
       </c>
       <c r="C141" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D141">
         <v>33</v>
       </c>
       <c r="E141" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="H141" t="s">
+        <v>448</v>
+      </c>
+      <c r="I141" s="5">
+        <v>3560817</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>2004</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H142" t="s">
+        <v>449</v>
+      </c>
+      <c r="I142" s="5">
+        <v>3599431</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>2004</v>
       </c>
       <c r="C143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D143">
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G143" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="H143" t="s">
+        <v>449</v>
+      </c>
+      <c r="I143" s="5">
+        <v>2757944</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>2004</v>
       </c>
       <c r="C144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D144">
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G144" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="H144" t="s">
+        <v>443</v>
+      </c>
+      <c r="I144" s="5">
+        <v>192553</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>2004</v>
       </c>
       <c r="C145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D145">
         <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G145" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="H145" t="s">
+        <v>451</v>
+      </c>
+      <c r="I145" s="5">
+        <v>2060208</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>2004</v>
       </c>
       <c r="C146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D146">
         <v>5</v>
       </c>
       <c r="E146" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G146" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="H146" t="s">
+        <v>449</v>
+      </c>
+      <c r="I146" s="5">
+        <v>2449771</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>2004</v>
       </c>
       <c r="C147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D147">
         <v>6</v>
       </c>
       <c r="E147" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G147" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="H147" t="s">
+        <v>454</v>
+      </c>
+      <c r="I147" s="5">
+        <v>2672885</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>2004</v>
       </c>
       <c r="C148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D148">
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G148" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="H148" t="s">
+        <v>443</v>
+      </c>
+      <c r="I148" s="5">
+        <v>24140</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>2004</v>
       </c>
       <c r="C149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D149">
         <v>8</v>
       </c>
       <c r="E149" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G149" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="H149" t="s">
+        <v>447</v>
+      </c>
+      <c r="I149" s="5">
+        <v>1564362</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>2004</v>
       </c>
       <c r="C150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D150">
         <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G150" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="H150" t="s">
+        <v>445</v>
+      </c>
+      <c r="I150" s="5">
+        <v>917491</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>2004</v>
       </c>
       <c r="C151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D151">
         <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G151" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="H151" t="s">
+        <v>449</v>
+      </c>
+      <c r="I151" s="5">
+        <v>1198817</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>2004</v>
       </c>
       <c r="C152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D152">
         <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G152" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="H152" t="s">
+        <v>443</v>
+      </c>
+      <c r="I152" s="5">
+        <v>1558110</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>2004</v>
       </c>
       <c r="C153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D153">
         <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G153" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="H153" t="s">
+        <v>443</v>
+      </c>
+      <c r="I153" s="5">
+        <v>2650429</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>2004</v>
       </c>
       <c r="C154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D154">
         <v>13</v>
       </c>
       <c r="E154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G154" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="H154" t="s">
+        <v>448</v>
+      </c>
+      <c r="I154" s="5">
+        <v>2437367</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>2004</v>
       </c>
       <c r="C155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D155">
         <v>14</v>
       </c>
       <c r="E155" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G155" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>2004</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D156">
         <v>15</v>
       </c>
       <c r="E156" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G156" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="H156" t="s">
+        <v>443</v>
+      </c>
+      <c r="I156" s="5">
+        <v>19038</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>2004</v>
       </c>
       <c r="C157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D157">
         <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G157" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H157" t="s">
+        <v>450</v>
+      </c>
+      <c r="I157" s="5">
+        <v>2492216</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>2004</v>
       </c>
       <c r="C158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D158">
         <v>17</v>
       </c>
       <c r="E158" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G158" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H158" t="s">
+        <v>443</v>
+      </c>
+      <c r="I158" s="5">
+        <v>3775523</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>2004</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D159">
         <v>18</v>
       </c>
       <c r="E159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G159" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="H159" t="s">
+        <v>454</v>
+      </c>
+      <c r="I159" s="5">
+        <v>3599479</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>2004</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D160">
         <v>19</v>
       </c>
       <c r="E160" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G160" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="H160" t="s">
+        <v>443</v>
+      </c>
+      <c r="I160" s="5">
+        <v>1097028</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>2004</v>
       </c>
       <c r="C161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D161">
         <v>20</v>
       </c>
       <c r="E161" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G161" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="H161" t="s">
+        <v>449</v>
+      </c>
+      <c r="I161" s="5">
+        <v>117947</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>2004</v>
       </c>
       <c r="C162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D162">
         <v>21</v>
       </c>
       <c r="E162" t="s">
+        <v>337</v>
+      </c>
+      <c r="F162" t="s">
         <v>338</v>
       </c>
-      <c r="F162" t="s">
-        <v>339</v>
-      </c>
       <c r="G162" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H162" t="s">
+        <v>449</v>
+      </c>
+      <c r="I162" s="5">
+        <v>3091812</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>2004</v>
       </c>
       <c r="C163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D163">
         <v>22</v>
       </c>
       <c r="E163" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G163" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="H163" t="s">
+        <v>443</v>
+      </c>
+      <c r="I163" s="5">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>2004</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D164">
         <v>23</v>
       </c>
       <c r="E164" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G164" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="H164" t="s">
+        <v>451</v>
+      </c>
+      <c r="I164" s="5">
+        <v>23873</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>2004</v>
       </c>
       <c r="C165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D165">
         <v>24</v>
       </c>
       <c r="E165" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G165" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="H165" t="s">
+        <v>448</v>
+      </c>
+      <c r="I165" s="5">
+        <v>3266032</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>2004</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D166">
         <v>25</v>
       </c>
       <c r="E166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G166" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="H166" t="s">
+        <v>450</v>
+      </c>
+      <c r="I166" s="5">
+        <v>25266</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>2004</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D167">
         <v>26</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G167" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="H167" t="s">
+        <v>451</v>
+      </c>
+      <c r="I167" s="5">
+        <v>3040980</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>2004</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D168">
         <v>27</v>
       </c>
       <c r="E168" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="H168" t="s">
+        <v>444</v>
+      </c>
+      <c r="I168" s="5">
+        <v>3912788</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>2004</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D169">
         <v>28</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G169" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="H169" t="s">
+        <v>448</v>
+      </c>
+      <c r="I169" s="5">
+        <v>3266032</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>2004</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170">
         <v>29</v>
       </c>
       <c r="E170" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G170" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="H170" t="s">
+        <v>450</v>
+      </c>
+      <c r="I170" s="5">
+        <v>23488</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>2004</v>
       </c>
       <c r="C171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D171">
         <v>30</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G171" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="H171" t="s">
+        <v>443</v>
+      </c>
+      <c r="I171" s="5">
+        <v>11483</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>2004</v>
       </c>
       <c r="C172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D172">
         <v>31</v>
       </c>
       <c r="E172" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G172" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="H172" t="s">
+        <v>450</v>
+      </c>
+      <c r="I172" s="5">
+        <v>17803</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>2004</v>
       </c>
       <c r="C173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D173">
         <v>32</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G173" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="H173" t="s">
+        <v>449</v>
+      </c>
+      <c r="I173" s="5">
+        <v>26399</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>2004</v>
       </c>
       <c r="C174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D174">
         <v>33</v>
       </c>
       <c r="E174" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G174" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="H174" t="s">
+        <v>444</v>
+      </c>
+      <c r="I174" s="5">
+        <v>3232310</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>2004</v>
       </c>
       <c r="C175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D175">
         <v>34</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G175" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="H175" t="s">
+        <v>445</v>
+      </c>
+      <c r="I175" s="5">
+        <v>3663075</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>2006</v>
       </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D176">
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G176" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="H176" t="s">
+        <v>443</v>
+      </c>
+      <c r="I176" s="5">
+        <v>915125</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>2006</v>
       </c>
       <c r="C177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D177">
         <v>2</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G177" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="H177" t="s">
+        <v>443</v>
+      </c>
+      <c r="I177" s="5">
+        <v>3915912</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>2006</v>
       </c>
       <c r="C178" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D178">
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H178" t="s">
+        <v>444</v>
+      </c>
+      <c r="I178" s="5">
+        <v>4348399</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>2006</v>
       </c>
       <c r="C179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D179">
         <v>4</v>
       </c>
       <c r="E179" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="H179" t="s">
+        <v>447</v>
+      </c>
+      <c r="I179" s="5">
+        <v>3350395</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>2006</v>
       </c>
       <c r="C180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D180">
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G180" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="H180" t="s">
+        <v>446</v>
+      </c>
+      <c r="I180" s="5">
+        <v>3798438</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>2006</v>
       </c>
       <c r="C181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D181">
         <v>6</v>
       </c>
       <c r="E181" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F181" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G181" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="H181" t="s">
+        <v>449</v>
+      </c>
+      <c r="I181" s="5">
+        <v>2332149</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>2006</v>
       </c>
       <c r="C182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D182">
         <v>7</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H182" t="s">
+        <v>449</v>
+      </c>
+      <c r="I182" s="5">
+        <v>4026635</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>2006</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D183">
         <v>8</v>
       </c>
       <c r="E183" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G183" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H183" t="s">
+        <v>448</v>
+      </c>
+      <c r="I183" s="5">
+        <v>3266032</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>2006</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D184">
         <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H184" t="s">
+        <v>449</v>
+      </c>
+      <c r="I184" s="5">
+        <v>3599431</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>2006</v>
       </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D185">
         <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G185" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="H185" t="s">
+        <v>454</v>
+      </c>
+      <c r="I185" s="5">
+        <v>4158039</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>2006</v>
       </c>
       <c r="C186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D186">
         <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H186" t="s">
+        <v>446</v>
+      </c>
+      <c r="I186" s="5">
+        <v>4196651</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>2006</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D187">
         <v>12</v>
       </c>
       <c r="E187" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G187" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="H187" t="s">
+        <v>450</v>
+      </c>
+      <c r="I187" s="5">
+        <v>4159296</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>2006</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D188">
         <v>13</v>
       </c>
       <c r="E188" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H188" t="s">
+        <v>443</v>
+      </c>
+      <c r="I188" s="5">
+        <v>2296522</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>2006</v>
       </c>
       <c r="C189" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D189">
         <v>14</v>
       </c>
       <c r="E189" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G189" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="H189" t="s">
+        <v>449</v>
+      </c>
+      <c r="I189" s="5">
+        <v>4276894</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>2006</v>
       </c>
       <c r="C190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D190">
         <v>15</v>
       </c>
       <c r="E190" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G190" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="H190" t="s">
+        <v>449</v>
+      </c>
+      <c r="I190" s="5">
+        <v>3383788</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>2006</v>
       </c>
       <c r="C191" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D191">
         <v>16</v>
       </c>
       <c r="E191" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G191" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="H191" t="s">
+        <v>450</v>
+      </c>
+      <c r="I191" s="5">
+        <v>3994706</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>2006</v>
       </c>
       <c r="C192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D192">
         <v>17</v>
       </c>
       <c r="E192" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G192" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="H192" t="s">
+        <v>449</v>
+      </c>
+      <c r="I192" s="5">
+        <v>4586467</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>2006</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D193">
         <v>18</v>
       </c>
       <c r="E193" t="s">
+        <v>369</v>
+      </c>
+      <c r="F193" t="s">
         <v>370</v>
       </c>
-      <c r="F193" t="s">
-        <v>371</v>
-      </c>
       <c r="G193" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="H193" t="s">
+        <v>445</v>
+      </c>
+      <c r="I193" s="5">
+        <v>4158022</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>2006</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D194">
         <v>19</v>
       </c>
       <c r="E194" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G194" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="H194" t="s">
+        <v>454</v>
+      </c>
+      <c r="I194" s="5">
+        <v>626713</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>2006</v>
       </c>
       <c r="C195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D195">
         <v>20</v>
       </c>
       <c r="E195" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G195" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="H195" t="s">
+        <v>443</v>
+      </c>
+      <c r="I195" s="5">
+        <v>1223050</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>2006</v>
       </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D196">
         <v>21</v>
       </c>
       <c r="E196" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="H196" t="s">
+        <v>447</v>
+      </c>
+      <c r="I196" s="5">
+        <v>2240585</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>2006</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197">
         <v>22</v>
       </c>
       <c r="E197" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G197" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="H197" t="s">
+        <v>454</v>
+      </c>
+      <c r="I197" s="5">
+        <v>3148428</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>2006</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198">
         <v>23</v>
       </c>
       <c r="E198" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G198" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="H198" t="s">
+        <v>451</v>
+      </c>
+      <c r="I198" s="5">
+        <v>3798627</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>2006</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199">
         <v>24</v>
       </c>
       <c r="E199" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G199" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="H199" t="s">
+        <v>448</v>
+      </c>
+      <c r="I199" s="5">
+        <v>3991651</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>2006</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200">
         <v>25</v>
       </c>
       <c r="E200" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G200" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="H200" t="s">
+        <v>449</v>
+      </c>
+      <c r="I200" s="5">
+        <v>2489542</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>2006</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D201">
         <v>26</v>
       </c>
       <c r="E201" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G201" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="H201" t="s">
+        <v>444</v>
+      </c>
+      <c r="I201" s="5">
+        <v>106879</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>2006</v>
       </c>
       <c r="C202" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D202">
         <v>27</v>
       </c>
       <c r="E202" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G202" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="H202" t="s">
+        <v>445</v>
+      </c>
+      <c r="I202" s="5">
+        <v>4403076</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>2006</v>
       </c>
       <c r="C203" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D203">
         <v>28</v>
       </c>
       <c r="E203" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G203" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="H203" t="s">
+        <v>454</v>
+      </c>
+      <c r="I203" s="5">
+        <v>3187575</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>2006</v>
       </c>
       <c r="C204" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D204">
         <v>29</v>
       </c>
       <c r="E204" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G204" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="H204" t="s">
+        <v>455</v>
+      </c>
+      <c r="I204" s="5">
+        <v>1537904</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>2006</v>
       </c>
       <c r="C205" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D205">
         <v>30</v>
       </c>
       <c r="E205" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G205" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="H205" t="s">
+        <v>444</v>
+      </c>
+      <c r="I205" s="5">
+        <v>26856</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>2006</v>
       </c>
       <c r="C206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D206">
         <v>31</v>
       </c>
       <c r="E206" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G206" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="H206" t="s">
+        <v>454</v>
+      </c>
+      <c r="I206" s="5">
+        <v>3217555</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>2006</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D207">
         <v>32</v>
       </c>
       <c r="E207" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G207" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="H207" t="s">
+        <v>455</v>
+      </c>
+      <c r="I207" s="5">
+        <v>4190176</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>2006</v>
       </c>
       <c r="C208" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D208">
         <v>33</v>
       </c>
       <c r="E208" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G208" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="H208" t="s">
+        <v>448</v>
+      </c>
+      <c r="I208" s="5">
+        <v>4645250</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>2010</v>
       </c>
       <c r="C209" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D209">
         <v>1</v>
       </c>
       <c r="E209" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="H209" t="s">
+        <v>449</v>
+      </c>
+      <c r="I209" s="5">
+        <v>4477026</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>2010</v>
       </c>
       <c r="C210" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D210">
         <v>2</v>
       </c>
       <c r="E210" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="H210" t="s">
+        <v>445</v>
+      </c>
+      <c r="I210" s="5">
+        <v>4556538</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>2010</v>
       </c>
       <c r="C211" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D211">
         <v>3</v>
       </c>
       <c r="E211" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="H211" t="s">
+        <v>454</v>
+      </c>
+      <c r="I211" s="5">
+        <v>4455206</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>2010</v>
       </c>
       <c r="C212" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D212">
         <v>4</v>
       </c>
       <c r="E212" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="H212" t="s">
+        <v>446</v>
+      </c>
+      <c r="I212" s="5">
+        <v>4674166</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>2010</v>
       </c>
       <c r="C213" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D213">
         <v>5</v>
       </c>
       <c r="E213" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="H213" t="s">
+        <v>450</v>
+      </c>
+      <c r="I213" s="5">
+        <v>4768151</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>2010</v>
       </c>
       <c r="C214" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D214">
         <v>6</v>
       </c>
       <c r="E214" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="H214" t="s">
+        <v>454</v>
+      </c>
+      <c r="I214" s="5">
+        <v>4591782</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>2010</v>
       </c>
       <c r="C215" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D215">
         <v>7</v>
       </c>
       <c r="E215" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="H215" t="s">
+        <v>443</v>
+      </c>
+      <c r="I215" s="5">
+        <v>4447960</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>2010</v>
       </c>
       <c r="C216" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D216">
         <v>8</v>
       </c>
       <c r="E216" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="H216" t="s">
+        <v>443</v>
+      </c>
+      <c r="I216" s="5">
+        <v>4785828</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>2010</v>
       </c>
       <c r="C217" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D217">
         <v>9</v>
       </c>
       <c r="E217" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="H217" t="s">
+        <v>449</v>
+      </c>
+      <c r="I217" s="5">
+        <v>4662491</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>2010</v>
       </c>
       <c r="C218" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D218">
         <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="H218" t="s">
+        <v>444</v>
+      </c>
+      <c r="I218" s="5">
+        <v>4882903</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>2010</v>
       </c>
       <c r="C219" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D219">
         <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="H219" t="s">
+        <v>443</v>
+      </c>
+      <c r="I219" s="5">
+        <v>3148435</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>2010</v>
       </c>
       <c r="C220" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D220">
         <v>12</v>
       </c>
       <c r="E220" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="H220" t="s">
+        <v>445</v>
+      </c>
+      <c r="I220" s="5">
+        <v>4611679</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>2010</v>
       </c>
       <c r="C221" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D221">
         <v>13</v>
       </c>
       <c r="E221" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="H221" t="s">
+        <v>444</v>
+      </c>
+      <c r="I221" s="5">
+        <v>5138292</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>2010</v>
       </c>
       <c r="C222" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D222">
         <v>14</v>
       </c>
       <c r="E222" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="H222" t="s">
+        <v>454</v>
+      </c>
+      <c r="I222" s="5">
+        <v>5135587</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>2010</v>
       </c>
       <c r="C223" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D223">
         <v>15</v>
       </c>
       <c r="E223" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="H223" t="s">
+        <v>454</v>
+      </c>
+      <c r="I223" s="5">
+        <v>5114089</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>2010</v>
       </c>
       <c r="C224" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D224">
         <v>16</v>
       </c>
       <c r="E224" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="H224" t="s">
+        <v>443</v>
+      </c>
+      <c r="I224" s="5">
+        <v>4220974</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>2010</v>
       </c>
       <c r="C225" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D225">
         <v>17</v>
       </c>
       <c r="E225" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="H225" t="s">
+        <v>453</v>
+      </c>
+      <c r="I225" s="5">
+        <v>4674173</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>2010</v>
       </c>
       <c r="C226" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D226">
         <v>18</v>
       </c>
       <c r="E226" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="H226" t="s">
+        <v>444</v>
+      </c>
+      <c r="I226" s="5">
+        <v>5037070</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>2010</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D227">
         <v>19</v>
       </c>
       <c r="E227" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G227" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H227" t="s">
+        <v>444</v>
+      </c>
+      <c r="I227" s="5">
+        <v>4348399</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>2010</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D228">
         <v>20</v>
       </c>
       <c r="E228" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="F228" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G228" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="H228" t="s">
+        <v>445</v>
+      </c>
+      <c r="I228" s="5">
+        <v>4219071</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>2010</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D229">
         <v>21</v>
       </c>
       <c r="E229" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G229" t="s">
-        <v>283</v>
-      </c>
-      <c r="I229" s="3"/>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="H229" t="s">
+        <v>451</v>
+      </c>
+      <c r="I229" s="5">
+        <v>2060208</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>2010</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D230">
         <v>22</v>
       </c>
       <c r="E230" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G230" t="s">
-        <v>284</v>
-      </c>
-      <c r="I230" s="3"/>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="H230" t="s">
+        <v>448</v>
+      </c>
+      <c r="I230" s="5">
+        <v>4785835</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>2010</v>
       </c>
       <c r="C231" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D231">
         <v>23</v>
       </c>
       <c r="E231" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G231" t="s">
-        <v>192</v>
-      </c>
-      <c r="I231" s="3"/>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="H231" t="s">
+        <v>446</v>
+      </c>
+      <c r="I231" s="5">
+        <v>4491002</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>2010</v>
       </c>
       <c r="C232" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D232">
         <v>24</v>
       </c>
       <c r="E232" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G232" t="s">
-        <v>375</v>
-      </c>
-      <c r="I232" s="3"/>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="H232" t="s">
+        <v>449</v>
+      </c>
+      <c r="I232" s="5">
+        <v>5111477</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>2010</v>
       </c>
       <c r="C233" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D233">
         <v>25</v>
       </c>
       <c r="E233" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G233" t="s">
-        <v>41</v>
-      </c>
-      <c r="I233" s="3"/>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="H233" t="s">
+        <v>443</v>
+      </c>
+      <c r="I233" s="5">
+        <v>5060793</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>2010</v>
       </c>
       <c r="C234" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D234">
         <v>26</v>
       </c>
       <c r="E234" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G234" t="s">
-        <v>376</v>
-      </c>
-      <c r="I234" s="3"/>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="H234" t="s">
+        <v>450</v>
+      </c>
+      <c r="I234" s="5">
+        <v>487976</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>2010</v>
       </c>
       <c r="C235" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D235">
         <v>27</v>
       </c>
       <c r="E235" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G235" t="s">
-        <v>377</v>
-      </c>
-      <c r="I235" s="3"/>
-    </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="H235" t="s">
+        <v>443</v>
+      </c>
+      <c r="I235" s="5">
+        <v>4592255</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>2010</v>
       </c>
       <c r="C236" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D236">
         <v>28</v>
       </c>
       <c r="E236" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G236" t="s">
-        <v>378</v>
-      </c>
-      <c r="I236" s="3"/>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="H236" t="s">
+        <v>449</v>
+      </c>
+      <c r="I236" s="5">
+        <v>3383788</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>2010</v>
       </c>
       <c r="C237" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D237">
         <v>29</v>
       </c>
       <c r="E237" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G237" t="s">
-        <v>248</v>
-      </c>
-      <c r="I237" s="3"/>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="H237" t="s">
+        <v>444</v>
+      </c>
+      <c r="I237" s="5">
+        <v>4847027</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>2010</v>
       </c>
       <c r="C238" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D238">
         <v>30</v>
       </c>
       <c r="E238" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G238" t="s">
-        <v>379</v>
-      </c>
-      <c r="I238" s="3"/>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="H238" t="s">
+        <v>444</v>
+      </c>
+      <c r="I238" s="5">
+        <v>5639997</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>2014</v>
       </c>
       <c r="C239" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D239">
         <v>1</v>
       </c>
       <c r="E239" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
-      </c>
-      <c r="I239" s="3"/>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H239" t="s">
+        <v>446</v>
+      </c>
+      <c r="I239" s="5">
+        <v>5677416</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>2014</v>
       </c>
       <c r="C240" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D240">
         <v>2</v>
       </c>
       <c r="E240" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F240" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G240" t="s">
-        <v>31</v>
-      </c>
-      <c r="I240" s="3"/>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H240" t="s">
+        <v>446</v>
+      </c>
+      <c r="I240" s="5">
+        <v>5675274</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>2014</v>
       </c>
       <c r="C241" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D241">
         <v>3</v>
       </c>
       <c r="E241" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F241" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G241" t="s">
-        <v>32</v>
-      </c>
-      <c r="I241" s="3"/>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H241" t="s">
+        <v>449</v>
+      </c>
+      <c r="I241" s="5">
+        <v>6016351</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>2014</v>
       </c>
       <c r="C242" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D242">
         <v>4</v>
       </c>
       <c r="E242" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G242" t="s">
-        <v>33</v>
-      </c>
-      <c r="I242" s="3"/>
-      <c r="J242" s="4"/>
-    </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="H242" t="s">
+        <v>446</v>
+      </c>
+      <c r="I242" s="5">
+        <v>5925687</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>2014</v>
       </c>
       <c r="C243" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D243">
         <v>5</v>
       </c>
       <c r="E243" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F243" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G243" t="s">
-        <v>34</v>
-      </c>
-      <c r="I243" s="3"/>
-    </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H243" t="s">
+        <v>443</v>
+      </c>
+      <c r="I243" s="5">
+        <v>6428767</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>2014</v>
       </c>
       <c r="C244" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D244">
         <v>6</v>
       </c>
       <c r="E244" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
-      </c>
-      <c r="I244" s="3"/>
-    </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="H244" t="s">
+        <v>444</v>
+      </c>
+      <c r="I244" s="5">
+        <v>5032549</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>2014</v>
       </c>
       <c r="C245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D245">
         <v>7</v>
       </c>
       <c r="E245" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G245" t="s">
-        <v>36</v>
-      </c>
-      <c r="I245" s="3"/>
-    </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="H245" t="s">
+        <v>446</v>
+      </c>
+      <c r="I245" s="5">
+        <v>6219086</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>2014</v>
       </c>
       <c r="C246" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D246">
         <v>8</v>
       </c>
       <c r="E246" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G246" t="s">
-        <v>37</v>
-      </c>
-      <c r="I246" s="3"/>
-    </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H246" t="s">
+        <v>444</v>
+      </c>
+      <c r="I246" s="5">
+        <v>5148938</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>2014</v>
       </c>
       <c r="C247" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D247">
         <v>9</v>
       </c>
       <c r="E247" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G247" t="s">
-        <v>38</v>
-      </c>
-      <c r="I247" s="3"/>
-      <c r="J247" s="4"/>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H247" t="s">
+        <v>447</v>
+      </c>
+      <c r="I247" s="5">
+        <v>6223508</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>2014</v>
       </c>
       <c r="C248" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D248">
         <v>10</v>
       </c>
       <c r="E248" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F248" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G248" t="s">
-        <v>39</v>
-      </c>
-      <c r="I248" s="3"/>
-      <c r="J248" s="4"/>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H248" t="s">
+        <v>446</v>
+      </c>
+      <c r="I248" s="5">
+        <v>5638022</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>2014</v>
       </c>
       <c r="C249" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D249">
         <v>11</v>
       </c>
       <c r="E249" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G249" t="s">
-        <v>40</v>
-      </c>
-      <c r="I249" s="3"/>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H249" t="s">
+        <v>445</v>
+      </c>
+      <c r="I249" s="5">
+        <v>5508444</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>2014</v>
       </c>
       <c r="C250" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D250">
         <v>12</v>
       </c>
       <c r="E250" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G250" t="s">
-        <v>402</v>
-      </c>
-      <c r="I250" s="3"/>
-      <c r="J250" s="4"/>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="H250" t="s">
+        <v>445</v>
+      </c>
+      <c r="I250" s="5">
+        <v>6304702</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>2014</v>
       </c>
       <c r="C251" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D251">
         <v>13</v>
       </c>
       <c r="E251" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G251" t="s">
-        <v>41</v>
-      </c>
-      <c r="I251" s="3"/>
-    </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="H251" t="s">
+        <v>445</v>
+      </c>
+      <c r="I251" s="5">
+        <v>5393329</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>2014</v>
       </c>
       <c r="C252" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D252">
         <v>14</v>
       </c>
       <c r="E252" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G252" t="s">
-        <v>42</v>
-      </c>
-      <c r="I252" s="3"/>
-    </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H252" t="s">
+        <v>444</v>
+      </c>
+      <c r="I252" s="5">
+        <v>5639997</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>2014</v>
       </c>
       <c r="C253" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D253">
         <v>15</v>
       </c>
       <c r="E253" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G253" t="s">
-        <v>43</v>
-      </c>
-      <c r="I253" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="H253" t="s">
+        <v>443</v>
+      </c>
+      <c r="I253" s="5">
+        <v>5665521</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K75" xr:uid="{32DB7A01-82BB-4F87-9239-01271ED35F07}"/>
-  <conditionalFormatting sqref="J1">
+  <autoFilter ref="A1:J253" xr:uid="{32DB7A01-82BB-4F87-9239-01271ED35F07}">
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="I1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
